--- a/CNA/RBS-TargetsAnalysis-CNA.xlsx
+++ b/CNA/RBS-TargetsAnalysis-CNA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7310" tabRatio="668"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7305" tabRatio="668"/>
   </bookViews>
   <sheets>
     <sheet name="Sn+Al targets" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="37">
   <si>
     <t>g/cm^3</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>116Sn-G1</t>
+  </si>
+  <si>
+    <t>116Sn-D8</t>
+  </si>
+  <si>
+    <t>116Sn-D5</t>
   </si>
 </sst>
 </file>
@@ -632,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -847,6 +853,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1137,11 +1146,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2013588640"/>
-        <c:axId val="-2013603872"/>
+        <c:axId val="-1721889552"/>
+        <c:axId val="-1721890640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2013588640"/>
+        <c:axId val="-1721889552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,12 +1263,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2013603872"/>
+        <c:crossAx val="-1721890640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2013603872"/>
+        <c:axId val="-1721890640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1381,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2013588640"/>
+        <c:crossAx val="-1721889552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1589,11 +1598,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2014410992"/>
-        <c:axId val="-1752292576"/>
+        <c:axId val="-1721894992"/>
+        <c:axId val="-1721888464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2014410992"/>
+        <c:axId val="-1721894992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,12 +1715,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1752292576"/>
+        <c:crossAx val="-1721888464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1752292576"/>
+        <c:axId val="-1721888464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,7 +1833,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2014410992"/>
+        <c:crossAx val="-1721894992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2041,11 +2050,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1752284416"/>
-        <c:axId val="-1752288768"/>
+        <c:axId val="-1721885200"/>
+        <c:axId val="-1721897168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1752284416"/>
+        <c:axId val="-1721885200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,12 +2167,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1752288768"/>
+        <c:crossAx val="-1721897168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1752288768"/>
+        <c:axId val="-1721897168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2276,7 +2285,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1752284416"/>
+        <c:crossAx val="-1721885200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2493,11 +2502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1752293120"/>
-        <c:axId val="-1752295840"/>
+        <c:axId val="-1721887920"/>
+        <c:axId val="-1721898800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1752293120"/>
+        <c:axId val="-1721887920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,12 +2619,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1752295840"/>
+        <c:crossAx val="-1721898800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1752295840"/>
+        <c:axId val="-1721898800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +2737,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1752293120"/>
+        <c:crossAx val="-1721887920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2881,12 +2890,88 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17203905320490975"/>
+                  <c:y val="-0.24307086787793261"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Sn+Al targets'!$L$81:$L$86</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>317.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>346.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>434</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2927,11 +3012,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1752295296"/>
-        <c:axId val="-1752297472"/>
+        <c:axId val="-1721898256"/>
+        <c:axId val="-1721886832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1752295296"/>
+        <c:axId val="-1721898256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3044,12 +3129,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1752297472"/>
+        <c:crossAx val="-1721886832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1752297472"/>
+        <c:axId val="-1721886832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3162,7 +3247,509 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1752295296"/>
+        <c:crossAx val="-1721898256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RBS Calib Ebeam = 5.0 MeV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RBS Calib Ebeam = 5.0 MeV</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11411547360680142"/>
+                  <c:y val="-0.22924789016330568"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sn+Al targets'!$L$100:$L$105</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>370.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>413.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>463.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sn+Al targets'!$K$100:$K$105</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3601.3603252040011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3909.289944099171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4321.6528739353071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4346.6455203510932</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4833.3595556669889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4900.2426588796607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1602602544"/>
+        <c:axId val="-1602608528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1602602544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1200" b="1"/>
+                  <a:t>Channel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1602608528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1602608528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1200" b="1"/>
+                  <a:t>Energy (keV)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1602602544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3411,6 +3998,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5476,6 +6103,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6146,6 +7289,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6417,56 +7592,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X96"/>
+  <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.26953125" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.453125" customWidth="1"/>
-    <col min="19" max="19" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.1796875" customWidth="1"/>
-    <col min="22" max="22" width="8.1796875" customWidth="1"/>
-    <col min="23" max="23" width="8.54296875" customWidth="1"/>
-    <col min="24" max="24" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="8.1796875" customWidth="1"/>
-    <col min="28" max="28" width="11.7265625" customWidth="1"/>
-    <col min="29" max="29" width="14.54296875" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" customWidth="1"/>
     <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.26953125" customWidth="1"/>
-    <col min="32" max="32" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.81640625" customWidth="1"/>
-    <col min="38" max="39" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.1796875" customWidth="1"/>
-    <col min="42" max="42" width="6.453125" customWidth="1"/>
-    <col min="43" max="44" width="8.453125" customWidth="1"/>
-    <col min="45" max="45" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.85546875" customWidth="1"/>
+    <col min="38" max="39" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.140625" customWidth="1"/>
+    <col min="42" max="42" width="6.42578125" customWidth="1"/>
+    <col min="43" max="44" width="8.42578125" customWidth="1"/>
+    <col min="45" max="45" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>15</v>
       </c>
@@ -6486,8 +7661,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="72"/>
       <c r="C3" s="73"/>
       <c r="D3" s="73"/>
@@ -6512,7 +7687,7 @@
       <c r="W3" s="73"/>
       <c r="X3" s="74"/>
     </row>
-    <row r="4" spans="1:24" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="36"/>
       <c r="C4" s="69" t="s">
         <v>28</v>
@@ -6555,7 +7730,7 @@
       <c r="W4" s="37"/>
       <c r="X4" s="38"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="36"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -6594,7 +7769,7 @@
       <c r="W5" s="37"/>
       <c r="X5" s="38"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -6633,7 +7808,7 @@
       <c r="W6" s="37"/>
       <c r="X6" s="38"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="37">
@@ -6677,7 +7852,7 @@
       <c r="W7" s="37"/>
       <c r="X7" s="38"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="36"/>
       <c r="C8" s="37"/>
       <c r="D8" s="37">
@@ -6720,7 +7895,7 @@
       <c r="W8" s="37"/>
       <c r="X8" s="38"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="36"/>
       <c r="C9" s="37"/>
       <c r="D9" s="37">
@@ -6763,7 +7938,7 @@
       <c r="W9" s="37"/>
       <c r="X9" s="38"/>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="36"/>
       <c r="C10" s="37"/>
       <c r="D10" s="37">
@@ -6806,7 +7981,7 @@
       <c r="W10" s="37"/>
       <c r="X10" s="38"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="36"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
@@ -6851,7 +8026,7 @@
       </c>
       <c r="X11" s="38"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="36"/>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
@@ -6902,7 +8077,7 @@
       </c>
       <c r="X12" s="38"/>
     </row>
-    <row r="13" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -6927,7 +8102,7 @@
       <c r="W13" s="37"/>
       <c r="X13" s="38"/>
     </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="36"/>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
@@ -6952,7 +8127,7 @@
       <c r="W14" s="37"/>
       <c r="X14" s="38"/>
     </row>
-    <row r="15" spans="1:24" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="36"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -6995,7 +8170,7 @@
       </c>
       <c r="X15" s="38"/>
     </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="36"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -7040,7 +8215,7 @@
       </c>
       <c r="X16" s="38"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="36"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -7067,7 +8242,7 @@
       <c r="W17" s="37"/>
       <c r="X17" s="38"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="36"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -7092,7 +8267,7 @@
       <c r="W18" s="37"/>
       <c r="X18" s="38"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="36"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -7117,7 +8292,7 @@
       <c r="W19" s="37"/>
       <c r="X19" s="38"/>
     </row>
-    <row r="20" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="75"/>
       <c r="C20" s="76"/>
       <c r="D20" s="76"/>
@@ -7142,8 +8317,8 @@
       <c r="W20" s="76"/>
       <c r="X20" s="77"/>
     </row>
-    <row r="21" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="72"/>
       <c r="C22" s="73"/>
       <c r="D22" s="73"/>
@@ -7168,7 +8343,7 @@
       <c r="W22" s="73"/>
       <c r="X22" s="74"/>
     </row>
-    <row r="23" spans="2:24" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="36"/>
       <c r="C23" s="69" t="s">
         <v>28</v>
@@ -7211,7 +8386,7 @@
       <c r="W23" s="37"/>
       <c r="X23" s="38"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="36"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -7250,7 +8425,7 @@
       <c r="W24" s="37"/>
       <c r="X24" s="38"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="36"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -7289,7 +8464,7 @@
       <c r="W25" s="37"/>
       <c r="X25" s="38"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="36"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37">
@@ -7333,7 +8508,7 @@
       <c r="W26" s="37"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="36"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37">
@@ -7376,7 +8551,7 @@
       <c r="W27" s="37"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="36"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37">
@@ -7419,7 +8594,7 @@
       <c r="W28" s="37"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="36"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37">
@@ -7462,7 +8637,7 @@
       <c r="W29" s="37"/>
       <c r="X29" s="38"/>
     </row>
-    <row r="30" spans="2:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="36"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -7507,7 +8682,7 @@
       </c>
       <c r="X30" s="38"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="36"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -7558,7 +8733,7 @@
       </c>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="36"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -7583,7 +8758,7 @@
       <c r="W32" s="37"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="36"/>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
@@ -7608,7 +8783,7 @@
       <c r="W33" s="37"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="36"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -7651,7 +8826,7 @@
       </c>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="36"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -7696,7 +8871,7 @@
       </c>
       <c r="X35" s="38"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" s="36"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -7723,7 +8898,7 @@
       <c r="W36" s="37"/>
       <c r="X36" s="38"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="36"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -7748,7 +8923,7 @@
       <c r="W37" s="37"/>
       <c r="X37" s="38"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" s="36"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -7773,7 +8948,7 @@
       <c r="W38" s="37"/>
       <c r="X38" s="38"/>
     </row>
-    <row r="39" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="75"/>
       <c r="C39" s="76"/>
       <c r="D39" s="76"/>
@@ -7798,8 +8973,8 @@
       <c r="W39" s="76"/>
       <c r="X39" s="77"/>
     </row>
-    <row r="40" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="72"/>
       <c r="C41" s="73"/>
       <c r="D41" s="73"/>
@@ -7824,7 +8999,7 @@
       <c r="W41" s="73"/>
       <c r="X41" s="74"/>
     </row>
-    <row r="42" spans="2:24" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="36"/>
       <c r="C42" s="69" t="s">
         <v>28</v>
@@ -7867,7 +9042,7 @@
       <c r="W42" s="37"/>
       <c r="X42" s="38"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="36"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -7906,7 +9081,7 @@
       <c r="W43" s="37"/>
       <c r="X43" s="38"/>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" s="36"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -7945,7 +9120,7 @@
       <c r="W44" s="37"/>
       <c r="X44" s="38"/>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" s="36"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37">
@@ -7989,7 +9164,7 @@
       <c r="W45" s="37"/>
       <c r="X45" s="38"/>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" s="36"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37">
@@ -8032,7 +9207,7 @@
       <c r="W46" s="37"/>
       <c r="X46" s="38"/>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" s="36"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37">
@@ -8075,7 +9250,7 @@
       <c r="W47" s="37"/>
       <c r="X47" s="38"/>
     </row>
-    <row r="48" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="36"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37">
@@ -8118,7 +9293,7 @@
       <c r="W48" s="37"/>
       <c r="X48" s="38"/>
     </row>
-    <row r="49" spans="2:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="36"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -8163,7 +9338,7 @@
       </c>
       <c r="X49" s="38"/>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" s="36"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -8214,7 +9389,7 @@
       </c>
       <c r="X50" s="38"/>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="36"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -8239,7 +9414,7 @@
       <c r="W51" s="37"/>
       <c r="X51" s="38"/>
     </row>
-    <row r="52" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -8264,7 +9439,7 @@
       <c r="W52" s="37"/>
       <c r="X52" s="38"/>
     </row>
-    <row r="53" spans="2:24" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="36"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -8307,7 +9482,7 @@
       </c>
       <c r="X53" s="38"/>
     </row>
-    <row r="54" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="36"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -8352,7 +9527,7 @@
       </c>
       <c r="X54" s="38"/>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="36"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -8379,7 +9554,7 @@
       <c r="W55" s="37"/>
       <c r="X55" s="38"/>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="36"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -8404,7 +9579,7 @@
       <c r="W56" s="37"/>
       <c r="X56" s="38"/>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" s="36"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -8429,7 +9604,7 @@
       <c r="W57" s="37"/>
       <c r="X57" s="38"/>
     </row>
-    <row r="58" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="75"/>
       <c r="C58" s="76"/>
       <c r="D58" s="76"/>
@@ -8454,8 +9629,8 @@
       <c r="W58" s="76"/>
       <c r="X58" s="77"/>
     </row>
-    <row r="59" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="60" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="72"/>
       <c r="C60" s="73"/>
       <c r="D60" s="73"/>
@@ -8480,7 +9655,7 @@
       <c r="W60" s="73"/>
       <c r="X60" s="74"/>
     </row>
-    <row r="61" spans="2:24" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="36"/>
       <c r="C61" s="69" t="s">
         <v>28</v>
@@ -8523,7 +9698,7 @@
       <c r="W61" s="37"/>
       <c r="X61" s="38"/>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" s="36"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -8562,7 +9737,7 @@
       <c r="W62" s="37"/>
       <c r="X62" s="38"/>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63" s="36"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -8601,7 +9776,7 @@
       <c r="W63" s="37"/>
       <c r="X63" s="38"/>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B64" s="36"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37">
@@ -8645,7 +9820,7 @@
       <c r="W64" s="37"/>
       <c r="X64" s="38"/>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B65" s="36"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37">
@@ -8688,7 +9863,7 @@
       <c r="W65" s="37"/>
       <c r="X65" s="38"/>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B66" s="36"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37">
@@ -8731,7 +9906,7 @@
       <c r="W66" s="37"/>
       <c r="X66" s="38"/>
     </row>
-    <row r="67" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="36"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37">
@@ -8774,7 +9949,7 @@
       <c r="W67" s="37"/>
       <c r="X67" s="38"/>
     </row>
-    <row r="68" spans="2:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="36"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -8819,7 +9994,7 @@
       </c>
       <c r="X68" s="38"/>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B69" s="36"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -8870,7 +10045,7 @@
       </c>
       <c r="X69" s="38"/>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B70" s="36"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -8895,7 +10070,7 @@
       <c r="W70" s="37"/>
       <c r="X70" s="38"/>
     </row>
-    <row r="71" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="36"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -8920,7 +10095,7 @@
       <c r="W71" s="37"/>
       <c r="X71" s="38"/>
     </row>
-    <row r="72" spans="2:24" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="36"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -8963,7 +10138,7 @@
       </c>
       <c r="X72" s="38"/>
     </row>
-    <row r="73" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="36"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -9008,7 +10183,7 @@
       </c>
       <c r="X73" s="38"/>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B74" s="36"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -9035,7 +10210,7 @@
       <c r="W74" s="37"/>
       <c r="X74" s="38"/>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B75" s="36"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -9060,7 +10235,7 @@
       <c r="W75" s="37"/>
       <c r="X75" s="38"/>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B76" s="36"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -9085,7 +10260,7 @@
       <c r="W76" s="37"/>
       <c r="X76" s="38"/>
     </row>
-    <row r="77" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="75"/>
       <c r="C77" s="76"/>
       <c r="D77" s="76"/>
@@ -9110,8 +10285,8 @@
       <c r="W77" s="76"/>
       <c r="X77" s="77"/>
     </row>
-    <row r="78" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="79" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="72"/>
       <c r="C79" s="73"/>
       <c r="D79" s="73"/>
@@ -9136,7 +10311,7 @@
       <c r="W79" s="73"/>
       <c r="X79" s="74"/>
     </row>
-    <row r="80" spans="2:24" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="36"/>
       <c r="C80" s="69" t="s">
         <v>28</v>
@@ -9179,7 +10354,7 @@
       <c r="W80" s="37"/>
       <c r="X80" s="38"/>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B81" s="36"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -9202,7 +10377,9 @@
         <f>$D$80*1000*J81</f>
         <v>3385.2787056917609</v>
       </c>
-      <c r="L81" s="60"/>
+      <c r="L81" s="60">
+        <v>317.5</v>
+      </c>
       <c r="M81" s="37"/>
       <c r="N81" s="37"/>
       <c r="O81" s="37"/>
@@ -9216,7 +10393,7 @@
       <c r="W81" s="37"/>
       <c r="X81" s="38"/>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B82" s="36"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -9239,7 +10416,9 @@
         <f t="shared" ref="K82:K86" si="9">$D$80*1000*J82</f>
         <v>3674.7325474532204</v>
       </c>
-      <c r="L82" s="56"/>
+      <c r="L82" s="56">
+        <v>346.5</v>
+      </c>
       <c r="M82" s="37"/>
       <c r="N82" s="37"/>
       <c r="O82" s="37"/>
@@ -9253,7 +10432,7 @@
       <c r="W82" s="37"/>
       <c r="X82" s="38"/>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B83" s="36"/>
       <c r="C83" s="37"/>
       <c r="D83" s="37" t="e">
@@ -9281,7 +10460,9 @@
         <f t="shared" si="9"/>
         <v>4062.3537014991889</v>
       </c>
-      <c r="L83" s="32"/>
+      <c r="L83" s="32">
+        <v>378</v>
+      </c>
       <c r="M83" s="37"/>
       <c r="N83" s="37"/>
       <c r="O83" s="37"/>
@@ -9295,7 +10476,7 @@
       <c r="W83" s="37"/>
       <c r="X83" s="38"/>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B84" s="36"/>
       <c r="C84" s="37"/>
       <c r="D84" s="37" t="e">
@@ -9336,7 +10517,7 @@
       <c r="W84" s="37"/>
       <c r="X84" s="38"/>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B85" s="36"/>
       <c r="C85" s="37"/>
       <c r="D85" s="37" t="e">
@@ -9363,7 +10544,9 @@
         <f t="shared" si="9"/>
         <v>4543.3579823269692</v>
       </c>
-      <c r="L85" s="47"/>
+      <c r="L85" s="47">
+        <v>434</v>
+      </c>
       <c r="M85" s="37"/>
       <c r="N85" s="37"/>
       <c r="O85" s="37"/>
@@ -9377,7 +10560,7 @@
       <c r="W85" s="37"/>
       <c r="X85" s="38"/>
     </row>
-    <row r="86" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="36"/>
       <c r="C86" s="37"/>
       <c r="D86" s="37" t="e">
@@ -9418,7 +10601,7 @@
       <c r="W86" s="37"/>
       <c r="X86" s="38"/>
     </row>
-    <row r="87" spans="2:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="36"/>
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
@@ -9463,7 +10646,7 @@
       </c>
       <c r="X87" s="38"/>
     </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
       <c r="D88" s="37"/>
@@ -9475,38 +10658,46 @@
       <c r="J88" s="37"/>
       <c r="K88" s="37"/>
       <c r="L88" s="37"/>
-      <c r="M88" s="6"/>
+      <c r="M88" s="6">
+        <v>36.340000000000003</v>
+      </c>
       <c r="N88" s="15">
         <f>M88*$B$1/10</f>
-        <v>0</v>
-      </c>
-      <c r="O88" s="19"/>
+        <v>26.564540000000001</v>
+      </c>
+      <c r="O88" s="19">
+        <v>37.130000000000003</v>
+      </c>
       <c r="P88" s="6">
         <f>O88*$B$1/10</f>
-        <v>0</v>
+        <v>27.142029999999998</v>
       </c>
       <c r="Q88" s="18">
         <f>(($J$47/COS(RADIANS(0))*$N$88)+(1/COS(RADIANS(180-165))*$P$88))</f>
-        <v>0</v>
+        <v>53.778691797155474</v>
       </c>
       <c r="R88" s="37"/>
-      <c r="S88" s="26"/>
+      <c r="S88" s="26">
+        <v>61.11</v>
+      </c>
       <c r="T88" s="15">
         <f>S88*$E$1/10</f>
-        <v>0</v>
-      </c>
-      <c r="U88" s="26"/>
+        <v>16.493589</v>
+      </c>
+      <c r="U88" s="26">
+        <v>66.319999999999993</v>
+      </c>
       <c r="V88" s="6">
         <f>U88*$E$1/10</f>
-        <v>0</v>
+        <v>17.899767999999998</v>
       </c>
       <c r="W88" s="14">
         <f>(($J$45/COS(RADIANS(0))*T88)+(1/COS(RADIANS(180-165))*V88))</f>
-        <v>0</v>
+        <v>32.787116705938182</v>
       </c>
       <c r="X88" s="38"/>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B89" s="36"/>
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
@@ -9531,7 +10722,7 @@
       <c r="W89" s="37"/>
       <c r="X89" s="38"/>
     </row>
-    <row r="90" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="36"/>
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
@@ -9556,7 +10747,7 @@
       <c r="W90" s="37"/>
       <c r="X90" s="38"/>
     </row>
-    <row r="91" spans="2:24" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="36"/>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
@@ -9569,7 +10760,7 @@
       <c r="K91" s="37"/>
       <c r="L91" s="37"/>
       <c r="M91" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>17</v>
@@ -9599,7 +10790,7 @@
       </c>
       <c r="X91" s="38"/>
     </row>
-    <row r="92" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="36"/>
       <c r="C92" s="37"/>
       <c r="D92" s="37"/>
@@ -9612,31 +10803,39 @@
       <c r="K92" s="37"/>
       <c r="L92" s="37"/>
       <c r="M92" s="27"/>
-      <c r="N92" s="20"/>
-      <c r="O92" s="21"/>
-      <c r="P92" s="25" t="e">
-        <f>(N92-O92)*D83</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q92" s="23" t="e">
+      <c r="N92" s="20">
+        <v>434</v>
+      </c>
+      <c r="O92" s="21">
+        <v>425.5</v>
+      </c>
+      <c r="P92" s="25">
+        <f>(N92-O92)*10.028</f>
+        <v>85.238</v>
+      </c>
+      <c r="Q92" s="23">
         <f>P92*10^3/$Q$88</f>
-        <v>#VALUE!</v>
+        <v>1584.9771935974929</v>
       </c>
       <c r="R92" s="37"/>
       <c r="S92" s="24"/>
-      <c r="T92" s="20"/>
-      <c r="U92" s="21"/>
-      <c r="V92" s="22" t="e">
-        <f>(T92-U92)*D83</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W92" s="23" t="e">
+      <c r="T92" s="20">
+        <v>378</v>
+      </c>
+      <c r="U92" s="21">
+        <v>373.5</v>
+      </c>
+      <c r="V92" s="22">
+        <f>(T92-U92)*10.028</f>
+        <v>45.126000000000005</v>
+      </c>
+      <c r="W92" s="23">
         <f>V92*10^3/$W$88</f>
-        <v>#VALUE!</v>
+        <v>1376.3332837323596</v>
       </c>
       <c r="X92" s="38"/>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B93" s="36"/>
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
@@ -9663,7 +10862,7 @@
       <c r="W93" s="37"/>
       <c r="X93" s="38"/>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B94" s="36"/>
       <c r="C94" s="37"/>
       <c r="D94" s="37"/>
@@ -9688,7 +10887,7 @@
       <c r="W94" s="37"/>
       <c r="X94" s="38"/>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B95" s="36"/>
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
@@ -9713,7 +10912,7 @@
       <c r="W95" s="37"/>
       <c r="X95" s="38"/>
     </row>
-    <row r="96" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="75"/>
       <c r="C96" s="76"/>
       <c r="D96" s="76"/>
@@ -9738,6 +10937,662 @@
       <c r="W96" s="76"/>
       <c r="X96" s="77"/>
     </row>
+    <row r="97" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="72"/>
+      <c r="C98" s="73"/>
+      <c r="D98" s="73"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="73"/>
+      <c r="H98" s="73"/>
+      <c r="I98" s="73"/>
+      <c r="J98" s="73"/>
+      <c r="K98" s="73"/>
+      <c r="L98" s="73"/>
+      <c r="M98" s="73"/>
+      <c r="N98" s="73"/>
+      <c r="O98" s="73"/>
+      <c r="P98" s="73"/>
+      <c r="Q98" s="73"/>
+      <c r="R98" s="73"/>
+      <c r="S98" s="73"/>
+      <c r="T98" s="73"/>
+      <c r="U98" s="73"/>
+      <c r="V98" s="73"/>
+      <c r="W98" s="73"/>
+      <c r="X98" s="74"/>
+    </row>
+    <row r="99" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="36"/>
+      <c r="C99" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="78">
+        <v>5</v>
+      </c>
+      <c r="E99" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="37"/>
+      <c r="G99" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H99" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I99" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J99" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K99" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="L99" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M99" s="37"/>
+      <c r="N99" s="37"/>
+      <c r="O99" s="37"/>
+      <c r="P99" s="37"/>
+      <c r="Q99" s="37"/>
+      <c r="R99" s="37"/>
+      <c r="S99" s="37"/>
+      <c r="T99" s="37"/>
+      <c r="U99" s="37"/>
+      <c r="V99" s="37"/>
+      <c r="W99" s="37"/>
+      <c r="X99" s="38"/>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B100" s="36"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" s="58">
+        <v>6</v>
+      </c>
+      <c r="I100" s="58">
+        <v>12.010999999999999</v>
+      </c>
+      <c r="J100" s="59">
+        <f>((SQRT(1-(1/I100)^2*SIN(RADIANS(165))^2)+1/I100*COS(RADIANS(165)))/(1+1/I100))^2</f>
+        <v>0.72027206504080021</v>
+      </c>
+      <c r="K100" s="63">
+        <f>$D$99*1000*J100</f>
+        <v>3601.3603252040011</v>
+      </c>
+      <c r="L100" s="60">
+        <v>339</v>
+      </c>
+      <c r="M100" s="37"/>
+      <c r="N100" s="37"/>
+      <c r="O100" s="37"/>
+      <c r="P100" s="37"/>
+      <c r="Q100" s="37"/>
+      <c r="R100" s="37"/>
+      <c r="S100" s="37"/>
+      <c r="T100" s="37"/>
+      <c r="U100" s="37"/>
+      <c r="V100" s="37"/>
+      <c r="W100" s="37"/>
+      <c r="X100" s="38"/>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B101" s="36"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H101" s="53">
+        <v>8</v>
+      </c>
+      <c r="I101" s="54">
+        <v>15.999000000000001</v>
+      </c>
+      <c r="J101" s="55">
+        <f t="shared" ref="J101:J103" si="10">((SQRT(1-(1/I101)^2*SIN(RADIANS(165))^2)+1/I101*COS(RADIANS(165)))/(1+1/I101))^2</f>
+        <v>0.78185798881983415</v>
+      </c>
+      <c r="K101" s="64">
+        <f t="shared" ref="K101:K105" si="11">$D$99*1000*J101</f>
+        <v>3909.289944099171</v>
+      </c>
+      <c r="L101" s="56">
+        <v>370.5</v>
+      </c>
+      <c r="M101" s="37"/>
+      <c r="N101" s="37"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="37"/>
+      <c r="Q101" s="37"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="37"/>
+      <c r="T101" s="37"/>
+      <c r="U101" s="37"/>
+      <c r="V101" s="37"/>
+      <c r="W101" s="37"/>
+      <c r="X101" s="38"/>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B102" s="36"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37">
+        <f t="array" ref="D102:E105">LINEST(K100:K105,L100:L105,TRUE,TRUE)</f>
+        <v>9.80127738708428</v>
+      </c>
+      <c r="E102" s="37">
+        <v>294.51733917568345</v>
+      </c>
+      <c r="F102" s="37"/>
+      <c r="G102" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="30">
+        <v>13</v>
+      </c>
+      <c r="I102" s="30">
+        <v>26.98</v>
+      </c>
+      <c r="J102" s="51">
+        <f t="shared" si="10"/>
+        <v>0.86433057478706143</v>
+      </c>
+      <c r="K102" s="65">
+        <f t="shared" si="11"/>
+        <v>4321.6528739353071</v>
+      </c>
+      <c r="L102" s="32">
+        <v>405</v>
+      </c>
+      <c r="M102" s="37"/>
+      <c r="N102" s="37"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="37"/>
+      <c r="R102" s="37"/>
+      <c r="S102" s="37"/>
+      <c r="T102" s="37"/>
+      <c r="U102" s="37"/>
+      <c r="V102" s="37"/>
+      <c r="W102" s="37"/>
+      <c r="X102" s="38"/>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B103" s="36"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37">
+        <v>0.28321744167471208</v>
+      </c>
+      <c r="E103" s="37">
+        <v>117.04882382677867</v>
+      </c>
+      <c r="F103" s="37"/>
+      <c r="G103" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" s="40">
+        <v>14</v>
+      </c>
+      <c r="I103" s="40">
+        <v>28.09</v>
+      </c>
+      <c r="J103" s="49">
+        <f t="shared" si="10"/>
+        <v>0.86932910407021868</v>
+      </c>
+      <c r="K103" s="66">
+        <f t="shared" si="11"/>
+        <v>4346.6455203510932</v>
+      </c>
+      <c r="L103" s="41">
+        <v>413.5</v>
+      </c>
+      <c r="M103" s="37"/>
+      <c r="N103" s="37"/>
+      <c r="O103" s="37"/>
+      <c r="P103" s="37"/>
+      <c r="Q103" s="37"/>
+      <c r="R103" s="37"/>
+      <c r="S103" s="37"/>
+      <c r="T103" s="37"/>
+      <c r="U103" s="37"/>
+      <c r="V103" s="37"/>
+      <c r="W103" s="37"/>
+      <c r="X103" s="38"/>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B104" s="36"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37">
+        <v>0.99667120895590811</v>
+      </c>
+      <c r="E104" s="37">
+        <v>32.714628413016257</v>
+      </c>
+      <c r="F104" s="37"/>
+      <c r="G104" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="42">
+        <v>50</v>
+      </c>
+      <c r="I104" s="42">
+        <v>116</v>
+      </c>
+      <c r="J104" s="43">
+        <f>((SQRT(1-(1/I104)^2*SIN(RADIANS(165))^2)+1/I104*COS(RADIANS(165)))/(1+1/I104))^2</f>
+        <v>0.96667191113339779</v>
+      </c>
+      <c r="K104" s="67">
+        <f t="shared" si="11"/>
+        <v>4833.3595556669889</v>
+      </c>
+      <c r="L104" s="47">
+        <v>463.5</v>
+      </c>
+      <c r="M104" s="37"/>
+      <c r="N104" s="37"/>
+      <c r="O104" s="37"/>
+      <c r="P104" s="37"/>
+      <c r="Q104" s="37"/>
+      <c r="R104" s="37"/>
+      <c r="S104" s="37"/>
+      <c r="T104" s="37"/>
+      <c r="U104" s="37"/>
+      <c r="V104" s="37"/>
+      <c r="W104" s="37"/>
+      <c r="X104" s="38"/>
+    </row>
+    <row r="105" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="36"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37">
+        <v>1197.637455465825</v>
+      </c>
+      <c r="E105" s="37">
+        <v>4</v>
+      </c>
+      <c r="F105" s="37"/>
+      <c r="G105" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" s="46">
+        <v>78</v>
+      </c>
+      <c r="I105" s="46">
+        <v>195.1</v>
+      </c>
+      <c r="J105" s="50">
+        <f>((SQRT(1-(1/I105)^2*SIN(RADIANS(165))^2)+1/I105*COS(RADIANS(165)))/(1+1/I105))^2</f>
+        <v>0.9800485317759321</v>
+      </c>
+      <c r="K105" s="68">
+        <f t="shared" si="11"/>
+        <v>4900.2426588796607</v>
+      </c>
+      <c r="L105" s="48">
+        <v>472</v>
+      </c>
+      <c r="M105" s="37"/>
+      <c r="N105" s="37"/>
+      <c r="O105" s="37"/>
+      <c r="P105" s="37"/>
+      <c r="Q105" s="37"/>
+      <c r="R105" s="37"/>
+      <c r="S105" s="37"/>
+      <c r="T105" s="37"/>
+      <c r="U105" s="37"/>
+      <c r="V105" s="37"/>
+      <c r="W105" s="37"/>
+      <c r="X105" s="38"/>
+    </row>
+    <row r="106" spans="2:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="36"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R106" s="37"/>
+      <c r="S106" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T106" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U106" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V106" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W106" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X106" s="38"/>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B107" s="36"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="37"/>
+      <c r="L107" s="37"/>
+      <c r="M107" s="6">
+        <v>34.93</v>
+      </c>
+      <c r="N107" s="15">
+        <f>M107*$B$1/10</f>
+        <v>25.533829999999998</v>
+      </c>
+      <c r="O107" s="19">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="P107" s="6">
+        <f>O107*$B$1/10</f>
+        <v>26.096699999999998</v>
+      </c>
+      <c r="Q107" s="18">
+        <f>(($J$47/COS(RADIANS(0))*$N$107)+(1/COS(RADIANS(180-165))*$P$107))</f>
+        <v>51.700128141963091</v>
+      </c>
+      <c r="R107" s="37"/>
+      <c r="S107" s="26">
+        <v>58.39</v>
+      </c>
+      <c r="T107" s="15">
+        <f>S107*$E$1/10</f>
+        <v>15.759460999999998</v>
+      </c>
+      <c r="U107" s="26">
+        <v>63.39</v>
+      </c>
+      <c r="V107" s="6">
+        <f>U107*$E$1/10</f>
+        <v>17.108961000000001</v>
+      </c>
+      <c r="W107" s="14">
+        <f>(($J$45/COS(RADIANS(0))*T107)+(1/COS(RADIANS(180-165))*V107))</f>
+        <v>31.333883779329351</v>
+      </c>
+      <c r="X107" s="38"/>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B108" s="36"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="37"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="37"/>
+      <c r="O108" s="37"/>
+      <c r="P108" s="37"/>
+      <c r="Q108" s="37"/>
+      <c r="R108" s="37"/>
+      <c r="S108" s="37"/>
+      <c r="T108" s="37"/>
+      <c r="U108" s="37"/>
+      <c r="V108" s="37"/>
+      <c r="W108" s="37"/>
+      <c r="X108" s="38"/>
+    </row>
+    <row r="109" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="36"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="37"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="37"/>
+      <c r="K109" s="37"/>
+      <c r="L109" s="37"/>
+      <c r="M109" s="37"/>
+      <c r="N109" s="37"/>
+      <c r="O109" s="37"/>
+      <c r="P109" s="37"/>
+      <c r="Q109" s="37"/>
+      <c r="R109" s="37"/>
+      <c r="S109" s="37"/>
+      <c r="T109" s="37"/>
+      <c r="U109" s="37"/>
+      <c r="V109" s="37"/>
+      <c r="W109" s="37"/>
+      <c r="X109" s="38"/>
+    </row>
+    <row r="110" spans="2:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="36"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="37"/>
+      <c r="I110" s="37"/>
+      <c r="J110" s="37"/>
+      <c r="K110" s="37"/>
+      <c r="L110" s="37"/>
+      <c r="M110" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q110" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R110" s="37"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="U110" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="V110" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W110" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="X110" s="38"/>
+    </row>
+    <row r="111" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="36"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="37"/>
+      <c r="K111" s="37"/>
+      <c r="L111" s="37"/>
+      <c r="M111" s="27"/>
+      <c r="N111" s="20">
+        <v>463.5</v>
+      </c>
+      <c r="O111" s="21">
+        <v>454.5</v>
+      </c>
+      <c r="P111" s="25">
+        <f>(N111-O111)*D102</f>
+        <v>88.211496483758523</v>
+      </c>
+      <c r="Q111" s="23">
+        <f>P111*10^3/$Q$88</f>
+        <v>1640.2685438403378</v>
+      </c>
+      <c r="R111" s="37"/>
+      <c r="S111" s="24"/>
+      <c r="T111" s="20">
+        <v>405</v>
+      </c>
+      <c r="U111" s="21">
+        <v>400</v>
+      </c>
+      <c r="V111" s="22">
+        <f>(T111-U111)*D102</f>
+        <v>49.006386935421403</v>
+      </c>
+      <c r="W111" s="23">
+        <f>V111*10^3/$W$88</f>
+        <v>1494.6842497603852</v>
+      </c>
+      <c r="X111" s="38"/>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B112" s="36"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="37"/>
+      <c r="L112" s="37"/>
+      <c r="M112" s="37"/>
+      <c r="N112" s="37"/>
+      <c r="O112" s="37"/>
+      <c r="P112" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q112" s="37"/>
+      <c r="R112" s="37"/>
+      <c r="S112" s="37"/>
+      <c r="T112" s="37"/>
+      <c r="U112" s="37"/>
+      <c r="V112" s="37"/>
+      <c r="W112" s="37"/>
+      <c r="X112" s="38"/>
+    </row>
+    <row r="113" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B113" s="36"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="37"/>
+      <c r="L113" s="37"/>
+      <c r="M113" s="37"/>
+      <c r="N113" s="37"/>
+      <c r="O113" s="37"/>
+      <c r="P113" s="37"/>
+      <c r="Q113" s="37"/>
+      <c r="R113" s="37"/>
+      <c r="S113" s="37"/>
+      <c r="T113" s="37"/>
+      <c r="U113" s="37"/>
+      <c r="V113" s="37"/>
+      <c r="W113" s="37"/>
+      <c r="X113" s="38"/>
+    </row>
+    <row r="114" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B114" s="36"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="37"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="37"/>
+      <c r="O114" s="37"/>
+      <c r="P114" s="37"/>
+      <c r="Q114" s="37"/>
+      <c r="R114" s="37"/>
+      <c r="S114" s="37"/>
+      <c r="T114" s="37"/>
+      <c r="U114" s="37"/>
+      <c r="V114" s="37"/>
+      <c r="W114" s="37"/>
+      <c r="X114" s="38"/>
+    </row>
+    <row r="115" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="75"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="76"/>
+      <c r="J115" s="76"/>
+      <c r="K115" s="76"/>
+      <c r="L115" s="76"/>
+      <c r="M115" s="76"/>
+      <c r="N115" s="76"/>
+      <c r="O115" s="76"/>
+      <c r="P115" s="76"/>
+      <c r="Q115" s="76"/>
+      <c r="R115" s="76"/>
+      <c r="S115" s="76"/>
+      <c r="T115" s="76"/>
+      <c r="U115" s="76"/>
+      <c r="V115" s="76"/>
+      <c r="W115" s="76"/>
+      <c r="X115" s="77"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/CNA/RBS-TargetsAnalysis-CNA.xlsx
+++ b/CNA/RBS-TargetsAnalysis-CNA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="37">
   <si>
     <t>g/cm^3</t>
   </si>
@@ -1146,11 +1146,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1721889552"/>
-        <c:axId val="-1721890640"/>
+        <c:axId val="-81893088"/>
+        <c:axId val="-81887104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1721889552"/>
+        <c:axId val="-81893088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,12 +1263,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1721890640"/>
+        <c:crossAx val="-81887104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1721890640"/>
+        <c:axId val="-81887104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1381,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1721889552"/>
+        <c:crossAx val="-81893088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1598,11 +1598,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1721894992"/>
-        <c:axId val="-1721888464"/>
+        <c:axId val="-81892544"/>
+        <c:axId val="-81897440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1721894992"/>
+        <c:axId val="-81892544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,12 +1715,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1721888464"/>
+        <c:crossAx val="-81897440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1721888464"/>
+        <c:axId val="-81897440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1833,7 +1833,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1721894992"/>
+        <c:crossAx val="-81892544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2050,11 +2050,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1721885200"/>
-        <c:axId val="-1721897168"/>
+        <c:axId val="-81888736"/>
+        <c:axId val="-81896352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1721885200"/>
+        <c:axId val="-81888736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,12 +2167,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1721897168"/>
+        <c:crossAx val="-81896352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1721897168"/>
+        <c:axId val="-81896352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,7 +2285,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1721885200"/>
+        <c:crossAx val="-81888736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2502,11 +2502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1721887920"/>
-        <c:axId val="-1721898800"/>
+        <c:axId val="-81884384"/>
+        <c:axId val="-81888192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1721887920"/>
+        <c:axId val="-81884384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2619,12 +2619,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1721898800"/>
+        <c:crossAx val="-81888192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1721898800"/>
+        <c:axId val="-81888192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2737,7 +2737,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1721887920"/>
+        <c:crossAx val="-81884384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2956,10 +2956,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sn+Al targets'!$L$81:$L$86</c:f>
+              <c:f>'Sn+Al targets'!$L$81:$L$85</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>317.5</c:v>
                 </c:pt>
@@ -2969,7 +2969,7 @@
                 <c:pt idx="2">
                   <c:v>378</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>434</c:v>
                 </c:pt>
               </c:numCache>
@@ -2977,10 +2977,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sn+Al targets'!$K$81:$K$86</c:f>
+              <c:f>'Sn+Al targets'!$K$81:$K$85</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3385.2787056917609</c:v>
                 </c:pt>
@@ -2991,12 +2991,9 @@
                   <c:v>4062.3537014991889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4085.8467891300279</c:v>
+                  <c:v>4543.3579823269692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4543.3579823269692</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>4606.2280993468812</c:v>
                 </c:pt>
               </c:numCache>
@@ -3012,11 +3009,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1721898256"/>
-        <c:axId val="-1721886832"/>
+        <c:axId val="-81895808"/>
+        <c:axId val="-81886560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1721898256"/>
+        <c:axId val="-81895808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3129,12 +3126,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1721886832"/>
+        <c:crossAx val="-81886560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1721886832"/>
+        <c:axId val="-81886560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3247,7 +3244,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1721898256"/>
+        <c:crossAx val="-81895808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3514,11 +3511,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1602602544"/>
-        <c:axId val="-1602608528"/>
+        <c:axId val="-81886016"/>
+        <c:axId val="-166866624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1602602544"/>
+        <c:axId val="-81886016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3631,12 +3628,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1602608528"/>
+        <c:crossAx val="-166866624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1602608528"/>
+        <c:axId val="-166866624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3749,7 +3746,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1602602544"/>
+        <c:crossAx val="-81886016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7594,14 +7591,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M111" sqref="M111"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -10435,12 +10432,12 @@
     <row r="83" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B83" s="36"/>
       <c r="C83" s="37"/>
-      <c r="D83" s="37" t="e">
-        <f t="array" ref="D83:E86">LINEST(K81:K86,L81:L86,TRUE,TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E83" s="37" t="e">
-        <v>#VALUE!</v>
+      <c r="D83" s="37">
+        <f t="array" ref="D83:E86">LINEST(K81:K84,L81:L84,TRUE,TRUE)</f>
+        <v>10.028282738820089</v>
+      </c>
+      <c r="E83" s="37">
+        <v>215.99440361817187</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="31" t="s">
@@ -10479,31 +10476,33 @@
     <row r="84" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B84" s="36"/>
       <c r="C84" s="37"/>
-      <c r="D84" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E84" s="37" t="e">
-        <v>#VALUE!</v>
+      <c r="D84" s="37">
+        <v>0.52999498018827829</v>
+      </c>
+      <c r="E84" s="37">
+        <v>196.90374545342524</v>
       </c>
       <c r="F84" s="37"/>
-      <c r="G84" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="H84" s="40">
-        <v>14</v>
-      </c>
-      <c r="I84" s="40">
-        <v>28.09</v>
-      </c>
-      <c r="J84" s="49">
-        <f t="shared" si="8"/>
-        <v>0.86932910407021868</v>
-      </c>
-      <c r="K84" s="66">
-        <f t="shared" si="9"/>
-        <v>4085.8467891300279</v>
-      </c>
-      <c r="L84" s="41"/>
+      <c r="G84" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="42">
+        <v>50</v>
+      </c>
+      <c r="I84" s="42">
+        <v>116</v>
+      </c>
+      <c r="J84" s="43">
+        <f>((SQRT(1-(1/I84)^2*SIN(RADIANS(165))^2)+1/I84*COS(RADIANS(165)))/(1+1/I84))^2</f>
+        <v>0.96667191113339779</v>
+      </c>
+      <c r="K84" s="67">
+        <f>$D$80*1000*J84</f>
+        <v>4543.3579823269692</v>
+      </c>
+      <c r="L84" s="47">
+        <v>434</v>
+      </c>
       <c r="M84" s="37"/>
       <c r="N84" s="37"/>
       <c r="O84" s="37"/>
@@ -10517,36 +10516,34 @@
       <c r="W84" s="37"/>
       <c r="X84" s="38"/>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="36"/>
       <c r="C85" s="37"/>
-      <c r="D85" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E85" s="37" t="e">
-        <v>#VALUE!</v>
+      <c r="D85" s="37">
+        <v>0.99444478282660387</v>
+      </c>
+      <c r="E85" s="37">
+        <v>45.790155400265043</v>
       </c>
       <c r="F85" s="37"/>
-      <c r="G85" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" s="42">
-        <v>50</v>
-      </c>
-      <c r="I85" s="42">
-        <v>116</v>
-      </c>
-      <c r="J85" s="43">
+      <c r="G85" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" s="46">
+        <v>78</v>
+      </c>
+      <c r="I85" s="46">
+        <v>195.1</v>
+      </c>
+      <c r="J85" s="50">
         <f>((SQRT(1-(1/I85)^2*SIN(RADIANS(165))^2)+1/I85*COS(RADIANS(165)))/(1+1/I85))^2</f>
-        <v>0.96667191113339779</v>
-      </c>
-      <c r="K85" s="67">
-        <f t="shared" si="9"/>
-        <v>4543.3579823269692</v>
-      </c>
-      <c r="L85" s="47">
-        <v>434</v>
-      </c>
+        <v>0.9800485317759321</v>
+      </c>
+      <c r="K85" s="68">
+        <f>$D$80*1000*J85</f>
+        <v>4606.2280993468812</v>
+      </c>
+      <c r="L85" s="48"/>
       <c r="M85" s="37"/>
       <c r="N85" s="37"/>
       <c r="O85" s="37"/>
@@ -10563,31 +10560,13 @@
     <row r="86" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="36"/>
       <c r="C86" s="37"/>
-      <c r="D86" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E86" s="37" t="e">
-        <v>#VALUE!</v>
+      <c r="D86" s="37">
+        <v>358.02192849956941</v>
+      </c>
+      <c r="E86" s="37">
+        <v>2</v>
       </c>
       <c r="F86" s="37"/>
-      <c r="G86" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H86" s="46">
-        <v>78</v>
-      </c>
-      <c r="I86" s="46">
-        <v>195.1</v>
-      </c>
-      <c r="J86" s="50">
-        <f>((SQRT(1-(1/I86)^2*SIN(RADIANS(165))^2)+1/I86*COS(RADIANS(165)))/(1+1/I86))^2</f>
-        <v>0.9800485317759321</v>
-      </c>
-      <c r="K86" s="68">
-        <f t="shared" si="9"/>
-        <v>4606.2280993468812</v>
-      </c>
-      <c r="L86" s="48"/>
       <c r="M86" s="37"/>
       <c r="N86" s="37"/>
       <c r="O86" s="37"/>

--- a/CNA/RBS-TargetsAnalysis-CNA.xlsx
+++ b/CNA/RBS-TargetsAnalysis-CNA.xlsx
@@ -1146,11 +1146,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-81893088"/>
-        <c:axId val="-81887104"/>
+        <c:axId val="1319614192"/>
+        <c:axId val="1319609840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-81893088"/>
+        <c:axId val="1319614192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,12 +1263,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-81887104"/>
+        <c:crossAx val="1319609840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-81887104"/>
+        <c:axId val="1319609840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1381,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-81893088"/>
+        <c:crossAx val="1319614192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1598,11 +1598,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-81892544"/>
-        <c:axId val="-81897440"/>
+        <c:axId val="1319616368"/>
+        <c:axId val="1319611472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-81892544"/>
+        <c:axId val="1319616368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,12 +1715,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-81897440"/>
+        <c:crossAx val="1319611472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-81897440"/>
+        <c:axId val="1319611472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1833,7 +1833,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-81892544"/>
+        <c:crossAx val="1319616368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2050,11 +2050,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-81888736"/>
-        <c:axId val="-81896352"/>
+        <c:axId val="1319612016"/>
+        <c:axId val="1319614736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-81888736"/>
+        <c:axId val="1319612016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,12 +2167,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-81896352"/>
+        <c:crossAx val="1319614736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-81896352"/>
+        <c:axId val="1319614736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,7 +2285,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-81888736"/>
+        <c:crossAx val="1319612016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2502,11 +2502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-81884384"/>
-        <c:axId val="-81888192"/>
+        <c:axId val="1319615280"/>
+        <c:axId val="1319615824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-81884384"/>
+        <c:axId val="1319615280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2619,12 +2619,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-81888192"/>
+        <c:crossAx val="1319615824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-81888192"/>
+        <c:axId val="1319615824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2737,7 +2737,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-81884384"/>
+        <c:crossAx val="1319615280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3009,11 +3009,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-81895808"/>
-        <c:axId val="-81886560"/>
+        <c:axId val="1319616912"/>
+        <c:axId val="1319618000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-81895808"/>
+        <c:axId val="1319616912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,12 +3126,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-81886560"/>
+        <c:crossAx val="1319618000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-81886560"/>
+        <c:axId val="1319618000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3244,7 +3244,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-81895808"/>
+        <c:crossAx val="1319616912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3511,11 +3511,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-81886016"/>
-        <c:axId val="-166866624"/>
+        <c:axId val="1319618544"/>
+        <c:axId val="1096201808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-81886016"/>
+        <c:axId val="1319618544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,12 +3628,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-166866624"/>
+        <c:crossAx val="1096201808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-166866624"/>
+        <c:axId val="1096201808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3746,7 +3746,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-81886016"/>
+        <c:crossAx val="1319618544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7591,8 +7591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T112" sqref="T112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7978,7 +7978,7 @@
       <c r="W10" s="37"/>
       <c r="X10" s="38"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="36"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
@@ -10406,11 +10406,11 @@
         <v>15.999000000000001</v>
       </c>
       <c r="J82" s="55">
-        <f t="shared" ref="J82:J84" si="8">((SQRT(1-(1/I82)^2*SIN(RADIANS(165))^2)+1/I82*COS(RADIANS(165)))/(1+1/I82))^2</f>
+        <f t="shared" ref="J82:J83" si="8">((SQRT(1-(1/I82)^2*SIN(RADIANS(165))^2)+1/I82*COS(RADIANS(165)))/(1+1/I82))^2</f>
         <v>0.78185798881983415</v>
       </c>
       <c r="K82" s="64">
-        <f t="shared" ref="K82:K86" si="9">$D$80*1000*J82</f>
+        <f t="shared" ref="K82:K83" si="9">$D$80*1000*J82</f>
         <v>3674.7325474532204</v>
       </c>
       <c r="L82" s="56">
@@ -10789,12 +10789,12 @@
         <v>425.5</v>
       </c>
       <c r="P92" s="25">
-        <f>(N92-O92)*10.028</f>
-        <v>85.238</v>
+        <f>(N92-O92)*D83</f>
+        <v>85.240403279970749</v>
       </c>
       <c r="Q92" s="23">
         <f>P92*10^3/$Q$88</f>
-        <v>1584.9771935974929</v>
+        <v>1585.021881928325</v>
       </c>
       <c r="R92" s="37"/>
       <c r="S92" s="24"/>
@@ -10805,12 +10805,12 @@
         <v>373.5</v>
       </c>
       <c r="V92" s="22">
-        <f>(T92-U92)*10.028</f>
-        <v>45.126000000000005</v>
+        <f>(T92-U92)*D83</f>
+        <v>45.127272324690395</v>
       </c>
       <c r="W92" s="23">
         <f>V92*10^3/$W$88</f>
-        <v>1376.3332837323596</v>
+        <v>1376.3720893614668</v>
       </c>
       <c r="X92" s="38"/>
     </row>
@@ -11327,7 +11327,7 @@
         <v>17.108961000000001</v>
       </c>
       <c r="W107" s="14">
-        <f>(($J$45/COS(RADIANS(0))*T107)+(1/COS(RADIANS(180-165))*V107))</f>
+        <f>(($J$102/COS(RADIANS(0))*T107)+(1/COS(RADIANS(180-165))*V107))</f>
         <v>31.333883779329351</v>
       </c>
       <c r="X107" s="38"/>
@@ -11449,24 +11449,24 @@
         <v>88.211496483758523</v>
       </c>
       <c r="Q111" s="23">
-        <f>P111*10^3/$Q$88</f>
-        <v>1640.2685438403378</v>
+        <f>P111*10^3/$Q$107</f>
+        <v>1706.2142716849573</v>
       </c>
       <c r="R111" s="37"/>
       <c r="S111" s="24"/>
       <c r="T111" s="20">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U111" s="21">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V111" s="22">
         <f>(T111-U111)*D102</f>
-        <v>49.006386935421403</v>
+        <v>29.40383216125284</v>
       </c>
       <c r="W111" s="23">
-        <f>V111*10^3/$W$88</f>
-        <v>1494.6842497603852</v>
+        <f>V111*10^3/$W$107</f>
+        <v>938.40369002230921</v>
       </c>
       <c r="X111" s="38"/>
     </row>

--- a/CNA/RBS-TargetsAnalysis-CNA.xlsx
+++ b/CNA/RBS-TargetsAnalysis-CNA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7305" tabRatio="668"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7310" tabRatio="668"/>
   </bookViews>
   <sheets>
     <sheet name="Sn+Al targets" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="41">
   <si>
     <t>g/cm^3</t>
   </si>
@@ -160,9 +160,6 @@
     <t>MeV</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
     <t>116Sn-C3</t>
   </si>
   <si>
@@ -180,6 +177,21 @@
   <si>
     <t>116Sn-D5</t>
   </si>
+  <si>
+    <t>mg/cm2</t>
+  </si>
+  <si>
+    <t>AEL</t>
+  </si>
+  <si>
+    <t>ug/cm2</t>
+  </si>
+  <si>
+    <t>SimNRA (nm)</t>
+  </si>
+  <si>
+    <t>+-</t>
+  </si>
 </sst>
 </file>
 
@@ -190,7 +202,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -245,8 +257,34 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,8 +399,26 @@
         <bgColor rgb="FFDEEBF7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -634,11 +690,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -650,9 +767,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,9 +785,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,9 +815,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,7 +855,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,12 +956,159 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,13 +1185,13 @@
     </indexedColors>
     <mruColors>
       <color rgb="FFFFEBFF"/>
+      <color rgb="FFFF97BC"/>
       <color rgb="FFFF8F8F"/>
       <color rgb="FFDCCBB2"/>
       <color rgb="FFC0A072"/>
       <color rgb="FFCEB692"/>
       <color rgb="FFFFFF9B"/>
       <color rgb="FFFFBDDE"/>
-      <color rgb="FFFF97BC"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFDD7D7"/>
     </mruColors>
@@ -1146,13 +1400,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1319614192"/>
-        <c:axId val="1319609840"/>
+        <c:axId val="-1654331072"/>
+        <c:axId val="-1654321824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1319614192"/>
+        <c:axId val="-1654331072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1263,14 +1518,15 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319609840"/>
+        <c:crossAx val="-1654321824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1319609840"/>
+        <c:axId val="-1654321824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1381,7 +1637,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319614192"/>
+        <c:crossAx val="-1654331072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1534,6 +1790,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Sn+Al targets'!$L$24:$L$29</c:f>
@@ -1598,13 +1868,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1319616368"/>
-        <c:axId val="1319611472"/>
+        <c:axId val="-1654323456"/>
+        <c:axId val="-1654325632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1319616368"/>
+        <c:axId val="-1654323456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1715,14 +1986,15 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319611472"/>
+        <c:crossAx val="-1654325632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1319611472"/>
+        <c:axId val="-1654325632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1833,7 +2105,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319616368"/>
+        <c:crossAx val="-1654323456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1986,6 +2258,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Sn+Al targets'!$L$43:$L$48</c:f>
@@ -2050,13 +2336,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1319612016"/>
-        <c:axId val="1319614736"/>
+        <c:axId val="-1654330528"/>
+        <c:axId val="-1654327264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1319612016"/>
+        <c:axId val="-1654330528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="280"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2167,14 +2454,15 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319614736"/>
+        <c:crossAx val="-1654327264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1319614736"/>
+        <c:axId val="-1654327264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="2500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2285,7 +2573,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319612016"/>
+        <c:crossAx val="-1654330528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2438,6 +2726,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Sn+Al targets'!$L$62:$L$67</c:f>
@@ -2502,13 +2804,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1319615280"/>
-        <c:axId val="1319615824"/>
+        <c:axId val="-1654328352"/>
+        <c:axId val="-1654327808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1319615280"/>
+        <c:axId val="-1654328352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2619,14 +2922,15 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319615824"/>
+        <c:crossAx val="-1654327808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1319615824"/>
+        <c:axId val="-1654327808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="3000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2737,7 +3041,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319615280"/>
+        <c:crossAx val="-1654328352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3009,13 +3313,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1319616912"/>
-        <c:axId val="1319618000"/>
+        <c:axId val="-1654326176"/>
+        <c:axId val="-1654325088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1319616912"/>
+        <c:axId val="-1654326176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3126,14 +3431,15 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319618000"/>
+        <c:crossAx val="-1654325088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1319618000"/>
+        <c:axId val="-1654325088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="3000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3244,7 +3550,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319616912"/>
+        <c:crossAx val="-1654326176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3511,13 +3817,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1319618544"/>
-        <c:axId val="1096201808"/>
+        <c:axId val="-1654322912"/>
+        <c:axId val="-1654319104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1319618544"/>
+        <c:axId val="-1654322912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3628,14 +3935,15 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1096201808"/>
+        <c:crossAx val="-1654319104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1096201808"/>
+        <c:axId val="-1654319104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="3500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3746,7 +4054,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319618544"/>
+        <c:crossAx val="-1654322912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7589,407 +7897,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X115"/>
+  <dimension ref="A1:AF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T112" sqref="T112"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.140625" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" customWidth="1"/>
-    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.26953125" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.26953125" style="122" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.1796875" customWidth="1"/>
+    <col min="22" max="22" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.26953125" style="117" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" customWidth="1"/>
-    <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.28515625" customWidth="1"/>
-    <col min="32" max="32" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.85546875" customWidth="1"/>
-    <col min="38" max="39" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.140625" customWidth="1"/>
-    <col min="42" max="42" width="6.42578125" customWidth="1"/>
-    <col min="43" max="44" width="8.42578125" customWidth="1"/>
-    <col min="45" max="45" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.1796875" customWidth="1"/>
+    <col min="28" max="28" width="11.7265625" customWidth="1"/>
+    <col min="29" max="29" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.81640625" customWidth="1"/>
+    <col min="38" max="39" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.1796875" customWidth="1"/>
+    <col min="42" max="42" width="6.453125" customWidth="1"/>
+    <col min="43" max="44" width="8.453125" customWidth="1"/>
+    <col min="45" max="45" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:32" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34">
+      <c r="B1" s="31">
         <v>7.31</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="14">
         <v>2.6989999999999998</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="74"/>
+    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="34"/>
     </row>
-    <row r="4" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="69" t="s">
+    <row r="4" spans="1:32" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="33"/>
+      <c r="C4" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="66">
         <v>3.2</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="33" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="38"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="57" t="s">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="54">
         <v>6</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="54">
         <v>12.010999999999999</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="55">
         <f>((SQRT(1-(1/I5)^2*SIN(RADIANS(165))^2)+1/I5*COS(RADIANS(165)))/(1+1/I5))^2</f>
         <v>0.72027206504080021</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="59">
         <f t="shared" ref="K5:K10" si="0">$D$4*1000*J5</f>
         <v>2304.8706081305609</v>
       </c>
-      <c r="L5" s="60">
+      <c r="L5" s="56">
         <v>317.5</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="38"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="52" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="49">
         <v>8</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="50">
         <v>15.999000000000001</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="51">
         <f t="shared" ref="J6:J8" si="1">((SQRT(1-(1/I6)^2*SIN(RADIANS(165))^2)+1/I6*COS(RADIANS(165)))/(1+1/I6))^2</f>
         <v>0.78185798881983415</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="60">
         <f t="shared" si="0"/>
         <v>2501.9455642234693</v>
       </c>
-      <c r="L6" s="56">
+      <c r="L6" s="52">
         <v>346.5</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="38"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
         <f t="array" ref="D7:E10">LINEST(K5:K10,L5:L10,TRUE,TRUE)</f>
         <v>6.6688434468726774</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="34">
         <v>204.83675426380705</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="27">
         <v>13</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="27">
         <v>26.98</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="47">
         <f t="shared" si="1"/>
         <v>0.86433057478706143</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="61">
         <f t="shared" si="0"/>
         <v>2765.8578393185967</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="29">
         <v>376</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="38"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37">
+    <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34">
         <v>0.27860101229417383</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="34">
         <v>107.62240569785541</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="39" t="s">
+      <c r="F8" s="34"/>
+      <c r="G8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="36">
         <v>14</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="36">
         <v>28.09</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="45">
         <f t="shared" si="1"/>
         <v>0.86932910407021868</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="62">
         <f t="shared" si="0"/>
         <v>2781.8531330246997</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="37">
         <v>386.5</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="38"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34">
         <v>0.99306729047127862</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="34">
         <v>30.215528902178129</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="44" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="38">
         <v>50</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="38">
         <v>116</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="39">
         <f>((SQRT(1-(1/I9)^2*SIN(RADIANS(165))^2)+1/I9*COS(RADIANS(165)))/(1+1/I9))^2</f>
         <v>0.96667191113339779</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="63">
         <f t="shared" si="0"/>
         <v>3093.350115626873</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L9" s="43">
         <v>434</v>
       </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="38"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="119"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37">
+    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34">
         <v>572.9749884123155</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="34">
         <v>4</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="45" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="42">
         <v>78</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="42">
         <v>195.1</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="46">
         <f>((SQRT(1-(1/I10)^2*SIN(RADIANS(165))^2)+1/I10*COS(RADIANS(165)))/(1+1/I10))^2</f>
         <v>0.9800485317759321</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="64">
         <f t="shared" si="0"/>
         <v>3136.1553016829826</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="44">
         <v>442</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="38"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
     </row>
-    <row r="11" spans="1:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
+    <row r="11" spans="1:32" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="2" t="s">
         <v>9</v>
       </c>
@@ -8005,647 +8377,853 @@
       <c r="Q11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="9" t="s">
+      <c r="R11" s="34"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T11" s="10" t="s">
+      <c r="Y11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="Z11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="AA11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="AB11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="38"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="6">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="5">
         <v>46.15</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="13">
         <f>M12*$B$1/10</f>
         <v>33.73565</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="17">
         <v>47.1</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <f>O12*$B$1/10</f>
         <v>34.430099999999996</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="16">
         <f>(($J$9/COS(RADIANS(0))*$N$12)+(1/COS(RADIANS(180-165))*$P$12))</f>
         <v>68.255967677964605</v>
       </c>
-      <c r="R12" s="37"/>
-      <c r="S12" s="26">
+      <c r="R12" s="34"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="23">
         <v>80.72</v>
       </c>
-      <c r="T12" s="15">
-        <f>S12*$E$1/10</f>
+      <c r="Y12" s="13">
+        <f>X12*$E$1/10</f>
         <v>21.786327999999997</v>
       </c>
-      <c r="U12" s="26">
+      <c r="Z12" s="23">
         <v>87.39</v>
       </c>
-      <c r="V12" s="6">
-        <f>U12*$E$1/10</f>
+      <c r="AA12" s="5">
+        <f>Z12*$E$1/10</f>
         <v>23.586560999999996</v>
       </c>
-      <c r="W12" s="14">
-        <f>(($J$7/COS(RADIANS(0))*T12)+(1/COS(RADIANS(180-165))*V12))</f>
+      <c r="AB12" s="12">
+        <f>(($J$7/COS(RADIANS(0))*Y12)+(1/COS(RADIANS(180-165))*AA12))</f>
         <v>43.249194183828877</v>
       </c>
-      <c r="X12" s="38"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
     </row>
-    <row r="13" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="38"/>
+    <row r="13" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="38"/>
+    <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="124"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
     </row>
-    <row r="15" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="1" t="s">
+    <row r="15" spans="1:32" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="37"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="8" t="s">
+      <c r="R15" s="92"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="34"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="Z15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="AA15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="12" t="s">
+      <c r="AB15" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="X15" s="38"/>
+      <c r="AC15" s="97"/>
+      <c r="AD15" s="97"/>
+      <c r="AE15" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF15" s="34"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="20">
+    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="80">
         <v>434</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="81">
         <v>420</v>
       </c>
-      <c r="P16" s="25">
+      <c r="P16" s="82">
         <f>(N16-O16)*D7</f>
         <v>93.363808256217482</v>
       </c>
-      <c r="Q16" s="23">
-        <f>P16*10^3/$Q$12</f>
+      <c r="Q16" s="83">
+        <f>P16*10^3/Q12</f>
         <v>1367.8482839290045</v>
       </c>
-      <c r="R16" s="37"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="20">
+      <c r="R16" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="126">
+        <f>Q16/D7*D8</f>
+        <v>57.143929019083018</v>
+      </c>
+      <c r="T16" s="115">
+        <v>1383</v>
+      </c>
+      <c r="U16" s="111">
+        <v>1339</v>
+      </c>
+      <c r="V16" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" s="130">
+        <v>37</v>
+      </c>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="18">
         <v>376</v>
       </c>
-      <c r="U16" s="21">
+      <c r="Z16" s="19">
         <v>368</v>
       </c>
-      <c r="V16" s="22">
-        <f>(T16-U16)*D7</f>
+      <c r="AA16" s="95">
+        <f>(Y16-Z16)*D7</f>
         <v>53.350747574981419</v>
       </c>
-      <c r="W16" s="23">
-        <f>V16*10^3/$W$12</f>
+      <c r="AB16" s="98">
+        <f>AA16*10^3/AB12</f>
         <v>1233.5662798297772</v>
       </c>
-      <c r="X16" s="38"/>
+      <c r="AC16" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD16" s="87">
+        <f>AB16/D7*D8</f>
+        <v>51.534095384065097</v>
+      </c>
+      <c r="AE16" s="89">
+        <v>3.32</v>
+      </c>
+      <c r="AF16" s="34"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="38"/>
+    <row r="17" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="88"/>
+      <c r="AD17" s="88"/>
+      <c r="AE17" s="89"/>
+      <c r="AF17" s="34"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="38"/>
+    <row r="18" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="103">
+        <f>Q16*$B$1*10^(-7)*10^3</f>
+        <v>0.99989709555210227</v>
+      </c>
+      <c r="R18" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="128">
+        <f>S16*$B$1*10^(-7)*10^3</f>
+        <v>4.177221211294968E-2</v>
+      </c>
+      <c r="T18" s="116">
+        <f>T16*$B$1*10^(-7)*10^3</f>
+        <v>1.0109729999999999</v>
+      </c>
+      <c r="U18" s="112">
+        <f>U16*$B$1*10^(-7)*10^3</f>
+        <v>0.97880899999999993</v>
+      </c>
+      <c r="V18" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="W18" s="132">
+        <f>W16*$B$1*10^(-7)*10^3</f>
+        <v>2.7046999999999998E-2</v>
+      </c>
+      <c r="X18" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AB18" s="99">
+        <f>AB16*$E$1/10</f>
+        <v>332.9395389260568</v>
+      </c>
+      <c r="AC18" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD18" s="102">
+        <f>AD16*$E$1*10^(-7)*10^6</f>
+        <v>13.90905234415917</v>
+      </c>
+      <c r="AE18" s="100">
+        <f>AE16*$E$1/10</f>
+        <v>0.89606799999999986</v>
+      </c>
+      <c r="AF18" s="85" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="38"/>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="130"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
     </row>
-    <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="77"/>
+    <row r="20" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="131"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="34"/>
     </row>
-    <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="74"/>
+    <row r="21" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U21" s="110"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="133"/>
+      <c r="AD21" s="34"/>
+      <c r="AF21" s="34"/>
     </row>
-    <row r="23" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="36"/>
-      <c r="C23" s="69" t="s">
+    <row r="22" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="69"/>
+      <c r="AB22" s="69"/>
+      <c r="AC22" s="69"/>
+      <c r="AD22" s="69"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="34"/>
+    </row>
+    <row r="23" spans="2:32" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="33"/>
+      <c r="C23" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="66">
         <v>3.5</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="33" t="s">
+      <c r="F23" s="34"/>
+      <c r="G23" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="28" t="s">
+      <c r="K23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="38"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="130"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="57" t="s">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="58">
+      <c r="H24" s="54">
         <v>6</v>
       </c>
-      <c r="I24" s="58">
+      <c r="I24" s="54">
         <v>12.010999999999999</v>
       </c>
-      <c r="J24" s="59">
+      <c r="J24" s="55">
         <f>((SQRT(1-(1/I24)^2*SIN(RADIANS(165))^2)+1/I24*COS(RADIANS(165)))/(1+1/I24))^2</f>
         <v>0.72027206504080021</v>
       </c>
-      <c r="K24" s="63">
+      <c r="K24" s="59">
         <f>$D$23*1000*J24</f>
         <v>2520.9522276428006</v>
       </c>
-      <c r="L24" s="60">
+      <c r="L24" s="56">
         <v>350</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="38"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="124"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="130"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="52" t="s">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="53">
+      <c r="H25" s="49">
         <v>8</v>
       </c>
-      <c r="I25" s="54">
+      <c r="I25" s="50">
         <v>15.999000000000001</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="51">
         <f t="shared" ref="J25:J27" si="2">((SQRT(1-(1/I25)^2*SIN(RADIANS(165))^2)+1/I25*COS(RADIANS(165)))/(1+1/I25))^2</f>
         <v>0.78185798881983415</v>
       </c>
-      <c r="K25" s="64">
+      <c r="K25" s="60">
         <f t="shared" ref="K25:K29" si="3">$D$23*1000*J25</f>
         <v>2736.5029608694194</v>
       </c>
-      <c r="L25" s="56">
+      <c r="L25" s="52">
         <v>382</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="38"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="130"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34">
         <f t="array" ref="D26:E29">LINEST(K24:K29,L24:L29,TRUE,TRUE)</f>
         <v>6.7252740680271748</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="34">
         <v>174.9773679730506</v>
       </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="31" t="s">
+      <c r="F26" s="34"/>
+      <c r="G26" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="27">
         <v>13</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="27">
         <v>26.98</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="47">
         <f t="shared" si="2"/>
         <v>0.86433057478706143</v>
       </c>
-      <c r="K26" s="65">
+      <c r="K26" s="61">
         <f t="shared" si="3"/>
         <v>3025.1570117547149</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="29">
         <v>420</v>
       </c>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="38"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="124"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="130"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34">
         <v>0.13109567423964927</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="34">
         <v>55.876727831054865</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="39" t="s">
+      <c r="F27" s="34"/>
+      <c r="G27" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="36">
         <v>14</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="36">
         <v>28.09</v>
       </c>
-      <c r="J27" s="49">
+      <c r="J27" s="45">
         <f t="shared" si="2"/>
         <v>0.86932910407021868</v>
       </c>
-      <c r="K27" s="66">
+      <c r="K27" s="62">
         <f t="shared" si="3"/>
         <v>3042.6518642457654</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="37">
         <v>426</v>
       </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="38"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="124"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="130"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34">
         <v>0.99848240057289417</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="34">
         <v>15.462344374388723</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="44" t="s">
+      <c r="F28" s="34"/>
+      <c r="G28" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="38">
         <v>50</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="38">
         <v>116</v>
       </c>
-      <c r="J28" s="43">
+      <c r="J28" s="39">
         <f>((SQRT(1-(1/I28)^2*SIN(RADIANS(165))^2)+1/I28*COS(RADIANS(165)))/(1+1/I28))^2</f>
         <v>0.96667191113339779</v>
       </c>
-      <c r="K28" s="67">
+      <c r="K28" s="63">
         <f t="shared" si="3"/>
         <v>3383.3516889668922</v>
       </c>
-      <c r="L28" s="47">
+      <c r="L28" s="43">
         <v>477</v>
       </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="38"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="124"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="130"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
     </row>
-    <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37">
+    <row r="29" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34">
         <v>2631.7416381135326</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="34">
         <v>4</v>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="45" t="s">
+      <c r="F29" s="34"/>
+      <c r="G29" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="42">
         <v>78</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="42">
         <v>195.1</v>
       </c>
-      <c r="J29" s="50">
+      <c r="J29" s="46">
         <f>((SQRT(1-(1/I29)^2*SIN(RADIANS(165))^2)+1/I29*COS(RADIANS(165)))/(1+1/I29))^2</f>
         <v>0.9800485317759321</v>
       </c>
-      <c r="K29" s="68">
+      <c r="K29" s="64">
         <f t="shared" si="3"/>
         <v>3430.1698612157625</v>
       </c>
-      <c r="L29" s="48">
+      <c r="L29" s="44">
         <v>486</v>
       </c>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="38"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="124"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="130"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
     </row>
-    <row r="30" spans="2:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
+    <row r="30" spans="2:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
       <c r="M30" s="2" t="s">
         <v>9</v>
       </c>
@@ -8661,139 +9239,171 @@
       <c r="Q30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R30" s="37"/>
-      <c r="S30" s="9" t="s">
+      <c r="R30" s="34"/>
+      <c r="S30" s="124"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="130"/>
+      <c r="X30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T30" s="10" t="s">
+      <c r="Y30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U30" s="9" t="s">
+      <c r="Z30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V30" s="10" t="s">
+      <c r="AA30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="W30" s="11" t="s">
+      <c r="AB30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X30" s="38"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="6">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="5">
         <v>43.69</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N31" s="13">
         <f>M31*$B$1/10</f>
         <v>31.937390000000001</v>
       </c>
-      <c r="O31" s="19">
+      <c r="O31" s="17">
         <v>44.61</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="5">
         <f>O31*$B$1/10</f>
         <v>32.609909999999999</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q31" s="16">
         <f>(($J$28/COS(RADIANS(0))*$N$31)+(1/COS(RADIANS(180-165))*$P$31))</f>
         <v>64.633240896229239</v>
       </c>
-      <c r="R31" s="37"/>
-      <c r="S31" s="26">
+      <c r="R31" s="34"/>
+      <c r="S31" s="124"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="106"/>
+      <c r="W31" s="130"/>
+      <c r="X31" s="23">
         <v>75.7</v>
       </c>
-      <c r="T31" s="15">
-        <f>S31*$E$1/10</f>
+      <c r="Y31" s="13">
+        <f>X31*$E$1/10</f>
         <v>20.431429999999999</v>
       </c>
-      <c r="U31" s="26">
+      <c r="Z31" s="23">
         <v>82.01</v>
       </c>
-      <c r="V31" s="6">
-        <f>U31*$E$1/10</f>
+      <c r="AA31" s="5">
+        <f>Z31*$E$1/10</f>
         <v>22.134498999999998</v>
       </c>
-      <c r="W31" s="14">
-        <f>(($J$26/COS(RADIANS(0))*T31)+(1/COS(RADIANS(180-165))*V31))</f>
+      <c r="AB31" s="12">
+        <f>(($J$26/COS(RADIANS(0))*Y31)+(1/COS(RADIANS(180-165))*AA31))</f>
         <v>40.574829215632406</v>
       </c>
-      <c r="X31" s="38"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="38"/>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="124"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="106"/>
+      <c r="V32" s="106"/>
+      <c r="W32" s="130"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="34"/>
     </row>
-    <row r="33" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="38"/>
+    <row r="33" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="124"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="106"/>
+      <c r="V33" s="106"/>
+      <c r="W33" s="130"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34"/>
+      <c r="AF33" s="34"/>
     </row>
-    <row r="34" spans="2:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="13" t="s">
-        <v>32</v>
+    <row r="34" spans="2:32" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>17</v>
@@ -8804,504 +9414,680 @@
       <c r="P34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q34" s="5" t="s">
+      <c r="Q34" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="R34" s="37"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="8" t="s">
+      <c r="R34" s="92"/>
+      <c r="S34" s="125"/>
+      <c r="T34" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="U34" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="V34" s="106"/>
+      <c r="W34" s="130"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="U34" s="9" t="s">
+      <c r="Z34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V34" s="10" t="s">
+      <c r="AA34" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="W34" s="12" t="s">
+      <c r="AB34" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="X34" s="38"/>
+      <c r="AC34" s="97"/>
+      <c r="AD34" s="97"/>
+      <c r="AE34" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF34" s="34"/>
     </row>
-    <row r="35" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="20">
+    <row r="35" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="18">
         <v>477</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="19">
         <v>464</v>
       </c>
-      <c r="P35" s="25">
+      <c r="P35" s="22">
         <f>(N35-O35)*D26</f>
         <v>87.428562884353269</v>
       </c>
-      <c r="Q35" s="23">
-        <f>P35*10^3/$Q$31</f>
+      <c r="Q35" s="83">
+        <f>P35*10^3/Q31</f>
         <v>1352.6872809104941</v>
       </c>
-      <c r="R35" s="37"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="20">
+      <c r="R35" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="S35" s="126">
+        <f>Q35/D26*D27</f>
+        <v>26.36791442737119</v>
+      </c>
+      <c r="T35" s="113">
+        <v>1387</v>
+      </c>
+      <c r="U35" s="111">
+        <v>1361</v>
+      </c>
+      <c r="V35" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="W35" s="130">
+        <v>21</v>
+      </c>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="18">
         <v>414</v>
       </c>
-      <c r="U35" s="21">
+      <c r="Z35" s="19">
         <v>407</v>
       </c>
-      <c r="V35" s="22">
-        <f>(T35-U35)*D26</f>
+      <c r="AA35" s="20">
+        <f>(Y35-Z35)*D26</f>
         <v>47.076918476190222</v>
       </c>
-      <c r="W35" s="23">
-        <f>V35*10^3/$W$31</f>
+      <c r="AB35" s="98">
+        <f>AA35*10^3/AB31</f>
         <v>1160.2493315745796</v>
       </c>
-      <c r="X35" s="38"/>
+      <c r="AC35" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD35" s="87">
+        <f>AB35/D26*D27</f>
+        <v>22.616724146900197</v>
+      </c>
+      <c r="AE35" s="89">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AF35" s="34"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="38"/>
+    <row r="36" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="127"/>
+      <c r="T36" s="113"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="107"/>
+      <c r="W36" s="131"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="73"/>
+      <c r="AB36" s="90"/>
+      <c r="AC36" s="88"/>
+      <c r="AD36" s="88"/>
+      <c r="AE36" s="89"/>
+      <c r="AF36" s="34"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="38"/>
+    <row r="37" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="103">
+        <f>Q35*$B$1*10^(-7)*10^3</f>
+        <v>0.98881440234557116</v>
+      </c>
+      <c r="R37" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="S37" s="128">
+        <f>S35*$B$1*10^(-7)*10^3</f>
+        <v>1.9274945446408339E-2</v>
+      </c>
+      <c r="T37" s="114">
+        <f>T35*$B$1*10^(-7)*10^3</f>
+        <v>1.0138969999999998</v>
+      </c>
+      <c r="U37" s="112">
+        <f>U35*$B$1*10^(-7)*10^3</f>
+        <v>0.99489099999999997</v>
+      </c>
+      <c r="V37" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="W37" s="132">
+        <f>W35*$B$1*10^(-7)*10^3</f>
+        <v>1.5351E-2</v>
+      </c>
+      <c r="X37" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="74"/>
+      <c r="AB37" s="99">
+        <f>AB35*$E$1/10</f>
+        <v>313.15129459197902</v>
+      </c>
+      <c r="AC37" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD37" s="102">
+        <f>AD35*$E$1*10^(-7)*10^6</f>
+        <v>6.104253847248363</v>
+      </c>
+      <c r="AE37" s="100">
+        <f>AE35*$E$1/10</f>
+        <v>0.67205099999999995</v>
+      </c>
+      <c r="AF37" s="85" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="38"/>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="124"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="106"/>
+      <c r="V38" s="106"/>
+      <c r="W38" s="130"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="34"/>
     </row>
-    <row r="39" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="75"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="76"/>
-      <c r="S39" s="76"/>
-      <c r="T39" s="76"/>
-      <c r="U39" s="76"/>
-      <c r="V39" s="76"/>
-      <c r="W39" s="76"/>
-      <c r="X39" s="77"/>
+    <row r="39" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="84"/>
+      <c r="S39" s="129"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="108"/>
+      <c r="V39" s="108"/>
+      <c r="W39" s="131"/>
+      <c r="X39" s="71"/>
+      <c r="Y39" s="71"/>
+      <c r="Z39" s="71"/>
+      <c r="AA39" s="71"/>
+      <c r="AB39" s="71"/>
+      <c r="AC39" s="71"/>
+      <c r="AD39" s="71"/>
+      <c r="AE39" s="71"/>
+      <c r="AF39" s="34"/>
     </row>
-    <row r="40" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="72"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="73"/>
-      <c r="V41" s="73"/>
-      <c r="W41" s="73"/>
-      <c r="X41" s="74"/>
+    <row r="40" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U40" s="110"/>
+      <c r="V40" s="110"/>
+      <c r="W40" s="133"/>
+      <c r="AD40" s="34"/>
+      <c r="AF40" s="34"/>
     </row>
-    <row r="42" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="36"/>
-      <c r="C42" s="69" t="s">
+    <row r="41" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="68"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="123"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="88"/>
+      <c r="W41" s="120"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="69"/>
+      <c r="AA41" s="69"/>
+      <c r="AB41" s="69"/>
+      <c r="AC41" s="69"/>
+      <c r="AD41" s="69"/>
+      <c r="AE41" s="69"/>
+      <c r="AF41" s="34"/>
+    </row>
+    <row r="42" spans="2:32" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="33"/>
+      <c r="C42" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="70">
+      <c r="D42" s="66">
         <v>3.9</v>
       </c>
-      <c r="E42" s="71" t="s">
+      <c r="E42" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="33" t="s">
+      <c r="F42" s="34"/>
+      <c r="G42" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H42" s="28" t="s">
+      <c r="H42" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I42" s="28" t="s">
+      <c r="I42" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J42" s="28" t="s">
+      <c r="J42" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="28" t="s">
+      <c r="K42" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="29" t="s">
+      <c r="L42" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="38"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="124"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="106"/>
+      <c r="V42" s="106"/>
+      <c r="W42" s="130"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="34"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="57" t="s">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="58">
+      <c r="H43" s="54">
         <v>6</v>
       </c>
-      <c r="I43" s="58">
+      <c r="I43" s="54">
         <v>12.010999999999999</v>
       </c>
-      <c r="J43" s="59">
+      <c r="J43" s="55">
         <f>((SQRT(1-(1/I43)^2*SIN(RADIANS(165))^2)+1/I43*COS(RADIANS(165)))/(1+1/I43))^2</f>
         <v>0.72027206504080021</v>
       </c>
-      <c r="K43" s="63">
+      <c r="K43" s="59">
         <f>$D$42*1000*J43</f>
         <v>2809.0610536591207</v>
       </c>
-      <c r="L43" s="60">
+      <c r="L43" s="56">
         <v>300</v>
       </c>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="38"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="124"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="106"/>
+      <c r="V43" s="106"/>
+      <c r="W43" s="130"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="52" t="s">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="53">
+      <c r="H44" s="49">
         <v>8</v>
       </c>
-      <c r="I44" s="54">
+      <c r="I44" s="50">
         <v>15.999000000000001</v>
       </c>
-      <c r="J44" s="55">
+      <c r="J44" s="51">
         <f t="shared" ref="J44:J46" si="4">((SQRT(1-(1/I44)^2*SIN(RADIANS(165))^2)+1/I44*COS(RADIANS(165)))/(1+1/I44))^2</f>
         <v>0.78185798881983415</v>
       </c>
-      <c r="K44" s="64">
+      <c r="K44" s="60">
         <f t="shared" ref="K44:K48" si="5">$D$42*1000*J44</f>
         <v>3049.2461563973534</v>
       </c>
-      <c r="L44" s="56">
+      <c r="L44" s="52">
         <v>328</v>
       </c>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="38"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="124"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="106"/>
+      <c r="V44" s="106"/>
+      <c r="W44" s="130"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="34"/>
+      <c r="AD44" s="34"/>
+      <c r="AE44" s="34"/>
+      <c r="AF44" s="34"/>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34">
         <f t="array" ref="D45:E48">LINEST(K43:K48,L43:L48,TRUE,TRUE)</f>
         <v>8.6163917435189159</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="34">
         <v>240.16337861504917</v>
       </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="31" t="s">
+      <c r="F45" s="34"/>
+      <c r="G45" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="30">
+      <c r="H45" s="27">
         <v>13</v>
       </c>
-      <c r="I45" s="30">
+      <c r="I45" s="27">
         <v>26.98</v>
       </c>
-      <c r="J45" s="51">
+      <c r="J45" s="47">
         <f t="shared" si="4"/>
         <v>0.86433057478706143</v>
       </c>
-      <c r="K45" s="65">
+      <c r="K45" s="61">
         <f t="shared" si="5"/>
         <v>3370.8892416695394</v>
       </c>
-      <c r="L45" s="32">
+      <c r="L45" s="29">
         <v>356.5</v>
       </c>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="38"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="124"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="106"/>
+      <c r="V45" s="106"/>
+      <c r="W45" s="130"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="34"/>
+      <c r="AF45" s="34"/>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34">
         <v>0.32518562881215768</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="34">
         <v>118.8490265802717</v>
       </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="39" t="s">
+      <c r="F46" s="34"/>
+      <c r="G46" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H46" s="36">
         <v>14</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I46" s="36">
         <v>28.09</v>
       </c>
-      <c r="J46" s="49">
+      <c r="J46" s="45">
         <f t="shared" si="4"/>
         <v>0.86932910407021868</v>
       </c>
-      <c r="K46" s="66">
+      <c r="K46" s="62">
         <f t="shared" si="5"/>
         <v>3390.3835058738528</v>
       </c>
-      <c r="L46" s="41">
+      <c r="L46" s="37">
         <v>366</v>
       </c>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="38"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="124"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="106"/>
+      <c r="V46" s="106"/>
+      <c r="W46" s="130"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="34"/>
+      <c r="AD46" s="34"/>
+      <c r="AE46" s="34"/>
+      <c r="AF46" s="34"/>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34">
         <v>0.99433494007238665</v>
       </c>
-      <c r="E47" s="37">
+      <c r="E47" s="34">
         <v>33.288603894552338</v>
       </c>
-      <c r="F47" s="37"/>
-      <c r="G47" s="44" t="s">
+      <c r="F47" s="34"/>
+      <c r="G47" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="42">
+      <c r="H47" s="38">
         <v>50</v>
       </c>
-      <c r="I47" s="42">
+      <c r="I47" s="38">
         <v>116</v>
       </c>
-      <c r="J47" s="43">
+      <c r="J47" s="39">
         <f>((SQRT(1-(1/I47)^2*SIN(RADIANS(165))^2)+1/I47*COS(RADIANS(165)))/(1+1/I47))^2</f>
         <v>0.96667191113339779</v>
       </c>
-      <c r="K47" s="67">
+      <c r="K47" s="63">
         <f t="shared" si="5"/>
         <v>3770.0204534202512</v>
       </c>
-      <c r="L47" s="47">
+      <c r="L47" s="43">
         <v>410</v>
       </c>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="38"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="124"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="106"/>
+      <c r="V47" s="106"/>
+      <c r="W47" s="130"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
+      <c r="AD47" s="34"/>
+      <c r="AE47" s="34"/>
+      <c r="AF47" s="34"/>
     </row>
-    <row r="48" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37">
+    <row r="48" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34">
         <v>702.08255713282642</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="34">
         <v>4</v>
       </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="45" t="s">
+      <c r="F48" s="34"/>
+      <c r="G48" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="46">
+      <c r="H48" s="42">
         <v>78</v>
       </c>
-      <c r="I48" s="46">
+      <c r="I48" s="42">
         <v>195.1</v>
       </c>
-      <c r="J48" s="50">
+      <c r="J48" s="46">
         <f>((SQRT(1-(1/I48)^2*SIN(RADIANS(165))^2)+1/I48*COS(RADIANS(165)))/(1+1/I48))^2</f>
         <v>0.9800485317759321</v>
       </c>
-      <c r="K48" s="68">
+      <c r="K48" s="64">
         <f t="shared" si="5"/>
         <v>3822.1892739261352</v>
       </c>
-      <c r="L48" s="48">
+      <c r="L48" s="44">
         <v>418</v>
       </c>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="38"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="124"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="106"/>
+      <c r="V48" s="106"/>
+      <c r="W48" s="130"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+      <c r="AD48" s="34"/>
+      <c r="AE48" s="34"/>
+      <c r="AF48" s="34"/>
     </row>
-    <row r="49" spans="2:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="36"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
+    <row r="49" spans="2:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="33"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
       <c r="M49" s="2" t="s">
         <v>9</v>
       </c>
@@ -9317,139 +10103,171 @@
       <c r="Q49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R49" s="37"/>
-      <c r="S49" s="9" t="s">
+      <c r="R49" s="34"/>
+      <c r="S49" s="124"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="106"/>
+      <c r="V49" s="106"/>
+      <c r="W49" s="130"/>
+      <c r="X49" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T49" s="10" t="s">
+      <c r="Y49" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U49" s="9" t="s">
+      <c r="Z49" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V49" s="10" t="s">
+      <c r="AA49" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="W49" s="11" t="s">
+      <c r="AB49" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X49" s="38"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="34"/>
+      <c r="AE49" s="34"/>
+      <c r="AF49" s="34"/>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B50" s="36"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="6">
+    <row r="50" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="5">
         <v>40.86</v>
       </c>
-      <c r="N50" s="15">
+      <c r="N50" s="13">
         <f>M50*$B$1/10</f>
         <v>29.868659999999998</v>
       </c>
-      <c r="O50" s="19">
+      <c r="O50" s="17">
         <v>41.73</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P50" s="5">
         <f>O50*$B$1/10</f>
         <v>30.504629999999999</v>
       </c>
-      <c r="Q50" s="18">
+      <c r="Q50" s="16">
         <f>(($J$47/COS(RADIANS(0))*$N$50)+(1/COS(RADIANS(180-165))*$P$50))</f>
         <v>60.453911476416494</v>
       </c>
-      <c r="R50" s="37"/>
-      <c r="S50" s="26">
+      <c r="R50" s="34"/>
+      <c r="S50" s="124"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="106"/>
+      <c r="V50" s="106"/>
+      <c r="W50" s="130"/>
+      <c r="X50" s="23">
         <v>70.010000000000005</v>
       </c>
-      <c r="T50" s="15">
-        <f>S50*$E$1/10</f>
+      <c r="Y50" s="13">
+        <f>X50*$E$1/10</f>
         <v>18.895699</v>
       </c>
-      <c r="U50" s="26">
+      <c r="Z50" s="23">
         <v>75.900000000000006</v>
       </c>
-      <c r="V50" s="6">
-        <f>U50*$E$1/10</f>
+      <c r="AA50" s="5">
+        <f>Z50*$E$1/10</f>
         <v>20.485410000000002</v>
       </c>
-      <c r="W50" s="14">
-        <f>(($J$45/COS(RADIANS(0))*T50)+(1/COS(RADIANS(180-165))*V50))</f>
+      <c r="AB50" s="12">
+        <f>(($J$45/COS(RADIANS(0))*Y50)+(1/COS(RADIANS(180-165))*AA50))</f>
         <v>37.54018739660782</v>
       </c>
-      <c r="X50" s="38"/>
+      <c r="AC50" s="34"/>
+      <c r="AD50" s="34"/>
+      <c r="AE50" s="34"/>
+      <c r="AF50" s="34"/>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B51" s="36"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="38"/>
+    <row r="51" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="124"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="106"/>
+      <c r="V51" s="106"/>
+      <c r="W51" s="130"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="34"/>
     </row>
-    <row r="52" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="36"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="38"/>
+    <row r="52" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="33"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="124"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="106"/>
+      <c r="V52" s="106"/>
+      <c r="W52" s="130"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="34"/>
+      <c r="AD52" s="34"/>
+      <c r="AE52" s="34"/>
+      <c r="AF52" s="34"/>
     </row>
-    <row r="53" spans="2:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="36"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="13" t="s">
-        <v>33</v>
+    <row r="53" spans="2:32" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>17</v>
@@ -9460,504 +10278,680 @@
       <c r="P53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q53" s="5" t="s">
+      <c r="Q53" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="R53" s="37"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="8" t="s">
+      <c r="R53" s="75"/>
+      <c r="S53" s="125"/>
+      <c r="T53" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="U53" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="V53" s="106"/>
+      <c r="W53" s="130"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="U53" s="9" t="s">
+      <c r="Z53" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V53" s="10" t="s">
+      <c r="AA53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="W53" s="12" t="s">
+      <c r="AB53" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="X53" s="38"/>
+      <c r="AC53" s="97"/>
+      <c r="AD53" s="97"/>
+      <c r="AE53" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF53" s="34"/>
     </row>
-    <row r="54" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="36"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="20">
+    <row r="54" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="18">
         <v>410</v>
       </c>
-      <c r="O54" s="21">
+      <c r="O54" s="19">
         <v>401</v>
       </c>
-      <c r="P54" s="25">
+      <c r="P54" s="22">
         <f>(N54-O54)*D45</f>
         <v>77.547525691670245</v>
       </c>
-      <c r="Q54" s="23">
-        <f>P54*10^3/$Q$50</f>
+      <c r="Q54" s="83">
+        <f>P54*10^3/Q50</f>
         <v>1282.7544785406003</v>
       </c>
-      <c r="R54" s="37"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="20">
+      <c r="R54" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="S54" s="126">
+        <f>Q54/D45*D46</f>
+        <v>48.411601298141555</v>
+      </c>
+      <c r="T54" s="115">
+        <v>1438</v>
+      </c>
+      <c r="U54" s="111">
+        <v>1439</v>
+      </c>
+      <c r="V54" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="W54" s="130">
+        <v>77</v>
+      </c>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="18">
         <v>356.5</v>
       </c>
-      <c r="U54" s="21">
+      <c r="Z54" s="19">
         <v>352.5</v>
       </c>
-      <c r="V54" s="22">
-        <f>(T54-U54)*D45</f>
+      <c r="AA54" s="20">
+        <f>(Y54-Z54)*D45</f>
         <v>34.465566974075664</v>
       </c>
-      <c r="W54" s="23">
-        <f>V54*10^3/$W$50</f>
+      <c r="AB54" s="98">
+        <f>AA54*10^3/AB50</f>
         <v>918.09789359735635</v>
       </c>
-      <c r="X54" s="38"/>
+      <c r="AC54" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD54" s="87">
+        <f>AB54/D45*D46</f>
+        <v>34.649334631882191</v>
+      </c>
+      <c r="AE54" s="89">
+        <v>16.93</v>
+      </c>
+      <c r="AF54" s="34"/>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B55" s="36"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="38"/>
+    <row r="55" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="90"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="127"/>
+      <c r="T55" s="115"/>
+      <c r="U55" s="111"/>
+      <c r="V55" s="107"/>
+      <c r="W55" s="131"/>
+      <c r="X55" s="71"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="73"/>
+      <c r="AB55" s="90"/>
+      <c r="AC55" s="88"/>
+      <c r="AD55" s="88"/>
+      <c r="AE55" s="89"/>
+      <c r="AF55" s="34"/>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="38"/>
+    <row r="56" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="103">
+        <f>Q54*$B$1*10^(-7)*10^3</f>
+        <v>0.93769352381317872</v>
+      </c>
+      <c r="R56" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="S56" s="128">
+        <f>S54*$B$1*10^(-7)*10^3</f>
+        <v>3.5388880548941466E-2</v>
+      </c>
+      <c r="T56" s="116">
+        <f>T54*$B$1*10^(-7)*10^3</f>
+        <v>1.0511779999999997</v>
+      </c>
+      <c r="U56" s="112">
+        <f>U54*$B$1*10^(-7)*10^3</f>
+        <v>1.051909</v>
+      </c>
+      <c r="V56" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="W56" s="132">
+        <f>W54*$B$1*10^(-7)*10^3</f>
+        <v>5.6286999999999997E-2</v>
+      </c>
+      <c r="X56" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="74"/>
+      <c r="AB56" s="99">
+        <f>AB54*$E$1/10</f>
+        <v>247.79462148192647</v>
+      </c>
+      <c r="AC56" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD56" s="102">
+        <f>AD54*$E$1*10^(-7)*10^6</f>
+        <v>9.3518554171450017</v>
+      </c>
+      <c r="AE56" s="100">
+        <f>AE54*$E$1/10</f>
+        <v>4.569407</v>
+      </c>
+      <c r="AF56" s="85" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B57" s="36"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="38"/>
+    <row r="57" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="124"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="106"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="130"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="34"/>
+      <c r="AC57" s="34"/>
+      <c r="AD57" s="34"/>
+      <c r="AE57" s="34"/>
+      <c r="AF57" s="34"/>
     </row>
-    <row r="58" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="75"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="76"/>
-      <c r="O58" s="76"/>
-      <c r="P58" s="76"/>
-      <c r="Q58" s="76"/>
-      <c r="R58" s="76"/>
-      <c r="S58" s="76"/>
-      <c r="T58" s="76"/>
-      <c r="U58" s="76"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
-      <c r="X58" s="77"/>
+    <row r="58" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="70"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="84"/>
+      <c r="S58" s="129"/>
+      <c r="T58" s="71"/>
+      <c r="U58" s="108"/>
+      <c r="V58" s="108"/>
+      <c r="W58" s="131"/>
+      <c r="X58" s="71"/>
+      <c r="Y58" s="71"/>
+      <c r="Z58" s="71"/>
+      <c r="AA58" s="71"/>
+      <c r="AB58" s="71"/>
+      <c r="AC58" s="71"/>
+      <c r="AD58" s="71"/>
+      <c r="AE58" s="71"/>
+      <c r="AF58" s="34"/>
     </row>
-    <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="72"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
-      <c r="O60" s="73"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="73"/>
-      <c r="R60" s="73"/>
-      <c r="S60" s="73"/>
-      <c r="T60" s="73"/>
-      <c r="U60" s="73"/>
-      <c r="V60" s="73"/>
-      <c r="W60" s="73"/>
-      <c r="X60" s="74"/>
+    <row r="59" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U59" s="110"/>
+      <c r="V59" s="110"/>
+      <c r="W59" s="133"/>
+      <c r="AD59" s="34"/>
+      <c r="AF59" s="34"/>
     </row>
-    <row r="61" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="36"/>
-      <c r="C61" s="69" t="s">
+    <row r="60" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="68"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+      <c r="P60" s="69"/>
+      <c r="Q60" s="69"/>
+      <c r="R60" s="69"/>
+      <c r="S60" s="123"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="88"/>
+      <c r="V60" s="88"/>
+      <c r="W60" s="120"/>
+      <c r="X60" s="69"/>
+      <c r="Y60" s="69"/>
+      <c r="Z60" s="69"/>
+      <c r="AA60" s="69"/>
+      <c r="AB60" s="69"/>
+      <c r="AC60" s="69"/>
+      <c r="AD60" s="69"/>
+      <c r="AE60" s="69"/>
+      <c r="AF60" s="34"/>
+    </row>
+    <row r="61" spans="2:32" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="33"/>
+      <c r="C61" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="70">
+      <c r="D61" s="66">
         <v>4.3</v>
       </c>
-      <c r="E61" s="71" t="s">
+      <c r="E61" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F61" s="37"/>
-      <c r="G61" s="33" t="s">
+      <c r="F61" s="34"/>
+      <c r="G61" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H61" s="28" t="s">
+      <c r="H61" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I61" s="28" t="s">
+      <c r="I61" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J61" s="28" t="s">
+      <c r="J61" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K61" s="28" t="s">
+      <c r="K61" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L61" s="29" t="s">
+      <c r="L61" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="38"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="124"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="106"/>
+      <c r="V61" s="106"/>
+      <c r="W61" s="130"/>
+      <c r="X61" s="34"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="34"/>
+      <c r="AC61" s="34"/>
+      <c r="AD61" s="34"/>
+      <c r="AE61" s="34"/>
+      <c r="AF61" s="34"/>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B62" s="36"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="57" t="s">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H62" s="58">
+      <c r="H62" s="54">
         <v>6</v>
       </c>
-      <c r="I62" s="58">
+      <c r="I62" s="54">
         <v>12.010999999999999</v>
       </c>
-      <c r="J62" s="59">
+      <c r="J62" s="55">
         <f>((SQRT(1-(1/I62)^2*SIN(RADIANS(165))^2)+1/I62*COS(RADIANS(165)))/(1+1/I62))^2</f>
         <v>0.72027206504080021</v>
       </c>
-      <c r="K62" s="63">
+      <c r="K62" s="59">
         <f>$D$61*1000*J62</f>
         <v>3097.1698796754408</v>
       </c>
-      <c r="L62" s="60">
+      <c r="L62" s="56">
         <v>334</v>
       </c>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="38"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="124"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="106"/>
+      <c r="V62" s="106"/>
+      <c r="W62" s="130"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="34"/>
+      <c r="AA62" s="34"/>
+      <c r="AB62" s="34"/>
+      <c r="AC62" s="34"/>
+      <c r="AD62" s="34"/>
+      <c r="AE62" s="34"/>
+      <c r="AF62" s="34"/>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B63" s="36"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="52" t="s">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B63" s="33"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H63" s="53">
+      <c r="H63" s="49">
         <v>8</v>
       </c>
-      <c r="I63" s="54">
+      <c r="I63" s="50">
         <v>15.999000000000001</v>
       </c>
-      <c r="J63" s="55">
+      <c r="J63" s="51">
         <f t="shared" ref="J63:J65" si="6">((SQRT(1-(1/I63)^2*SIN(RADIANS(165))^2)+1/I63*COS(RADIANS(165)))/(1+1/I63))^2</f>
         <v>0.78185798881983415</v>
       </c>
-      <c r="K63" s="64">
+      <c r="K63" s="60">
         <f t="shared" ref="K63:K67" si="7">$D$61*1000*J63</f>
         <v>3361.9893519252869</v>
       </c>
-      <c r="L63" s="56">
+      <c r="L63" s="52">
         <v>364</v>
       </c>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
-      <c r="X63" s="38"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="124"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="106"/>
+      <c r="V63" s="106"/>
+      <c r="W63" s="130"/>
+      <c r="X63" s="34"/>
+      <c r="Y63" s="34"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="34"/>
+      <c r="AB63" s="34"/>
+      <c r="AC63" s="34"/>
+      <c r="AD63" s="34"/>
+      <c r="AE63" s="34"/>
+      <c r="AF63" s="34"/>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B64" s="36"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B64" s="33"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34">
         <f t="array" ref="D64:E67">LINEST(K62:K67,L62:L67,TRUE,TRUE)</f>
         <v>8.7203344167160974</v>
       </c>
-      <c r="E64" s="37">
+      <c r="E64" s="34">
         <v>200.56421713099689</v>
       </c>
-      <c r="F64" s="37"/>
-      <c r="G64" s="31" t="s">
+      <c r="F64" s="34"/>
+      <c r="G64" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H64" s="30">
+      <c r="H64" s="27">
         <v>13</v>
       </c>
-      <c r="I64" s="30">
+      <c r="I64" s="27">
         <v>26.98</v>
       </c>
-      <c r="J64" s="51">
+      <c r="J64" s="47">
         <f t="shared" si="6"/>
         <v>0.86433057478706143</v>
       </c>
-      <c r="K64" s="65">
+      <c r="K64" s="61">
         <f t="shared" si="7"/>
         <v>3716.6214715843644</v>
       </c>
-      <c r="L64" s="32">
+      <c r="L64" s="29">
         <v>397</v>
       </c>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="38"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="124"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="106"/>
+      <c r="V64" s="106"/>
+      <c r="W64" s="130"/>
+      <c r="X64" s="34"/>
+      <c r="Y64" s="34"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="34"/>
+      <c r="AB64" s="34"/>
+      <c r="AC64" s="34"/>
+      <c r="AD64" s="34"/>
+      <c r="AE64" s="34"/>
+      <c r="AF64" s="34"/>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B65" s="36"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37">
+    <row r="65" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B65" s="33"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34">
         <v>0.27004832371656518</v>
       </c>
-      <c r="E65" s="37">
+      <c r="E65" s="34">
         <v>109.50069653454334</v>
       </c>
-      <c r="F65" s="37"/>
-      <c r="G65" s="39" t="s">
+      <c r="F65" s="34"/>
+      <c r="G65" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H65" s="40">
+      <c r="H65" s="36">
         <v>14</v>
       </c>
-      <c r="I65" s="40">
+      <c r="I65" s="36">
         <v>28.09</v>
       </c>
-      <c r="J65" s="49">
+      <c r="J65" s="45">
         <f t="shared" si="6"/>
         <v>0.86932910407021868</v>
       </c>
-      <c r="K65" s="66">
+      <c r="K65" s="62">
         <f t="shared" si="7"/>
         <v>3738.1151475019406</v>
       </c>
-      <c r="L65" s="41">
+      <c r="L65" s="37">
         <v>406</v>
       </c>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="38"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="124"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="106"/>
+      <c r="V65" s="106"/>
+      <c r="W65" s="130"/>
+      <c r="X65" s="34"/>
+      <c r="Y65" s="34"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="34"/>
+      <c r="AC65" s="34"/>
+      <c r="AD65" s="34"/>
+      <c r="AE65" s="34"/>
+      <c r="AF65" s="34"/>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B66" s="36"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37">
+    <row r="66" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B66" s="33"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34">
         <v>0.99617867545651317</v>
       </c>
-      <c r="E66" s="37">
+      <c r="E66" s="34">
         <v>30.144226036304268</v>
       </c>
-      <c r="F66" s="37"/>
-      <c r="G66" s="44" t="s">
+      <c r="F66" s="34"/>
+      <c r="G66" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H66" s="42">
+      <c r="H66" s="38">
         <v>50</v>
       </c>
-      <c r="I66" s="42">
+      <c r="I66" s="38">
         <v>116</v>
       </c>
-      <c r="J66" s="43">
+      <c r="J66" s="39">
         <f>((SQRT(1-(1/I66)^2*SIN(RADIANS(165))^2)+1/I66*COS(RADIANS(165)))/(1+1/I66))^2</f>
         <v>0.96667191113339779</v>
       </c>
-      <c r="K66" s="67">
+      <c r="K66" s="63">
         <f t="shared" si="7"/>
         <v>4156.6892178736107</v>
       </c>
-      <c r="L66" s="47">
+      <c r="L66" s="43">
         <v>454.5</v>
       </c>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="38"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="124"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="106"/>
+      <c r="V66" s="106"/>
+      <c r="W66" s="130"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
+      <c r="AD66" s="34"/>
+      <c r="AE66" s="34"/>
+      <c r="AF66" s="34"/>
     </row>
-    <row r="67" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="36"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37">
+    <row r="67" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="33"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34">
         <v>1042.7574670718977</v>
       </c>
-      <c r="E67" s="37">
+      <c r="E67" s="34">
         <v>4</v>
       </c>
-      <c r="F67" s="37"/>
-      <c r="G67" s="45" t="s">
+      <c r="F67" s="34"/>
+      <c r="G67" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="46">
+      <c r="H67" s="42">
         <v>78</v>
       </c>
-      <c r="I67" s="46">
+      <c r="I67" s="42">
         <v>195.1</v>
       </c>
-      <c r="J67" s="50">
+      <c r="J67" s="46">
         <f>((SQRT(1-(1/I67)^2*SIN(RADIANS(165))^2)+1/I67*COS(RADIANS(165)))/(1+1/I67))^2</f>
         <v>0.9800485317759321</v>
       </c>
-      <c r="K67" s="68">
+      <c r="K67" s="64">
         <f t="shared" si="7"/>
         <v>4214.208686636508</v>
       </c>
-      <c r="L67" s="48">
+      <c r="L67" s="44">
         <v>462</v>
       </c>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="38"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="124"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="106"/>
+      <c r="V67" s="106"/>
+      <c r="W67" s="130"/>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
+      <c r="AB67" s="34"/>
+      <c r="AC67" s="34"/>
+      <c r="AD67" s="34"/>
+      <c r="AE67" s="34"/>
+      <c r="AF67" s="34"/>
     </row>
-    <row r="68" spans="2:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="36"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
+    <row r="68" spans="2:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
       <c r="M68" s="2" t="s">
         <v>9</v>
       </c>
@@ -9973,139 +10967,171 @@
       <c r="Q68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R68" s="37"/>
-      <c r="S68" s="9" t="s">
+      <c r="R68" s="34"/>
+      <c r="S68" s="124"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="106"/>
+      <c r="V68" s="106"/>
+      <c r="W68" s="130"/>
+      <c r="X68" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T68" s="10" t="s">
+      <c r="Y68" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U68" s="9" t="s">
+      <c r="Z68" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V68" s="10" t="s">
+      <c r="AA68" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="W68" s="11" t="s">
+      <c r="AB68" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X68" s="38"/>
+      <c r="AC68" s="34"/>
+      <c r="AD68" s="34"/>
+      <c r="AE68" s="34"/>
+      <c r="AF68" s="34"/>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B69" s="36"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="6">
+    <row r="69" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B69" s="33"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="5">
         <v>38.450000000000003</v>
       </c>
-      <c r="N69" s="15">
+      <c r="N69" s="13">
         <f>M69*$B$1/10</f>
         <v>28.106950000000001</v>
       </c>
-      <c r="O69" s="19">
+      <c r="O69" s="17">
         <v>39.270000000000003</v>
       </c>
-      <c r="P69" s="6">
+      <c r="P69" s="5">
         <f>O69*$B$1/10</f>
         <v>28.70637</v>
       </c>
-      <c r="Q69" s="18">
+      <c r="Q69" s="16">
         <f>(($J$47/COS(RADIANS(0))*$N$69)+(1/COS(RADIANS(180-165))*$P$69))</f>
         <v>56.889220159669449</v>
       </c>
-      <c r="R69" s="37"/>
-      <c r="S69" s="26">
+      <c r="R69" s="34"/>
+      <c r="S69" s="124"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="106"/>
+      <c r="V69" s="106"/>
+      <c r="W69" s="130"/>
+      <c r="X69" s="23">
         <v>65.209999999999994</v>
       </c>
-      <c r="T69" s="15">
-        <f>S69*$E$1/10</f>
+      <c r="Y69" s="13">
+        <f>X69*$E$1/10</f>
         <v>17.600178999999997</v>
       </c>
-      <c r="U69" s="26">
+      <c r="Z69" s="23">
         <v>70.73</v>
       </c>
-      <c r="V69" s="6">
-        <f>U69*$E$1/10</f>
+      <c r="AA69" s="5">
+        <f>Z69*$E$1/10</f>
         <v>19.090026999999999</v>
       </c>
-      <c r="W69" s="14">
-        <f>(($J$45/COS(RADIANS(0))*T69)+(1/COS(RADIANS(180-165))*V69))</f>
+      <c r="AB69" s="12">
+        <f>(($J$45/COS(RADIANS(0))*Y69)+(1/COS(RADIANS(180-165))*AA69))</f>
         <v>34.975823067910518</v>
       </c>
-      <c r="X69" s="38"/>
+      <c r="AC69" s="34"/>
+      <c r="AD69" s="34"/>
+      <c r="AE69" s="34"/>
+      <c r="AF69" s="34"/>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B70" s="36"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="38"/>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B70" s="33"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="124"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="106"/>
+      <c r="V70" s="106"/>
+      <c r="W70" s="130"/>
+      <c r="X70" s="34"/>
+      <c r="Y70" s="34"/>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="34"/>
+      <c r="AB70" s="34"/>
+      <c r="AC70" s="34"/>
+      <c r="AD70" s="34"/>
+      <c r="AE70" s="34"/>
+      <c r="AF70" s="34"/>
     </row>
-    <row r="71" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="36"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="38"/>
+    <row r="71" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="33"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="124"/>
+      <c r="T71" s="34"/>
+      <c r="U71" s="106"/>
+      <c r="V71" s="106"/>
+      <c r="W71" s="130"/>
+      <c r="X71" s="34"/>
+      <c r="Y71" s="34"/>
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="34"/>
+      <c r="AB71" s="34"/>
+      <c r="AC71" s="34"/>
+      <c r="AD71" s="34"/>
+      <c r="AE71" s="34"/>
+      <c r="AF71" s="34"/>
     </row>
-    <row r="72" spans="2:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="36"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="13" t="s">
-        <v>34</v>
+    <row r="72" spans="2:32" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="33"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>17</v>
@@ -10116,482 +11142,664 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q72" s="5" t="s">
+      <c r="Q72" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="R72" s="37"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="8" t="s">
+      <c r="R72" s="75"/>
+      <c r="S72" s="125"/>
+      <c r="T72" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="U72" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="V72" s="106"/>
+      <c r="W72" s="130"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="U72" s="9" t="s">
+      <c r="Z72" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V72" s="10" t="s">
+      <c r="AA72" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="W72" s="12" t="s">
+      <c r="AB72" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="X72" s="38"/>
+      <c r="AC72" s="97"/>
+      <c r="AD72" s="97"/>
+      <c r="AE72" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF72" s="34"/>
     </row>
-    <row r="73" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="36"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="20">
+    <row r="73" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="33"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="18">
         <v>454.5</v>
       </c>
-      <c r="O73" s="21">
+      <c r="O73" s="19">
         <v>446.5</v>
       </c>
-      <c r="P73" s="25">
+      <c r="P73" s="22">
         <f>(N73-O73)*D64</f>
         <v>69.762675333728779</v>
       </c>
-      <c r="Q73" s="23">
-        <f>P73*10^3/$Q$69</f>
+      <c r="Q73" s="83">
+        <f>P73*10^3/Q69</f>
         <v>1226.2898865185311</v>
       </c>
-      <c r="R73" s="37"/>
-      <c r="S73" s="24"/>
-      <c r="T73" s="20">
+      <c r="R73" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="S73" s="126">
+        <f>Q73/D64*D65</f>
+        <v>37.975324387801805</v>
+      </c>
+      <c r="T73" s="115">
+        <v>1349</v>
+      </c>
+      <c r="U73" s="111">
+        <v>1407</v>
+      </c>
+      <c r="V73" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="W73" s="130">
+        <v>47</v>
+      </c>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="18">
         <v>397</v>
       </c>
-      <c r="U73" s="21">
+      <c r="Z73" s="19">
         <v>392</v>
       </c>
-      <c r="V73" s="22">
-        <f>(T73-U73)*D64</f>
+      <c r="AA73" s="20">
+        <f>(Y73-Z73)*D64</f>
         <v>43.601672083580489</v>
       </c>
-      <c r="W73" s="23">
-        <f>V73*10^3/$W$69</f>
+      <c r="AB73" s="98">
+        <f>AA73*10^3/AB69</f>
         <v>1246.6231887930603</v>
       </c>
-      <c r="X73" s="38"/>
+      <c r="AC73" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD73" s="87">
+        <f>AB73/D64*D65</f>
+        <v>38.604999114992673</v>
+      </c>
+      <c r="AE73" s="89">
+        <v>10.29</v>
+      </c>
+      <c r="AF73" s="34"/>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B74" s="36"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="38"/>
+    <row r="74" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="33"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="34"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="73"/>
+      <c r="Q74" s="90"/>
+      <c r="R74" s="88"/>
+      <c r="S74" s="127"/>
+      <c r="T74" s="115"/>
+      <c r="U74" s="111"/>
+      <c r="V74" s="107"/>
+      <c r="W74" s="131"/>
+      <c r="X74" s="71"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="73"/>
+      <c r="AB74" s="90"/>
+      <c r="AC74" s="88"/>
+      <c r="AD74" s="88"/>
+      <c r="AE74" s="89"/>
+      <c r="AF74" s="34"/>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B75" s="36"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="37"/>
-      <c r="T75" s="37"/>
-      <c r="U75" s="37"/>
-      <c r="V75" s="37"/>
-      <c r="W75" s="37"/>
-      <c r="X75" s="38"/>
+    <row r="75" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="34"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="74"/>
+      <c r="Q75" s="103">
+        <f>Q73*$B$1*10^(-7)*10^3</f>
+        <v>0.89641790704504609</v>
+      </c>
+      <c r="R75" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="S75" s="128">
+        <f>S73*$B$1*10^(-7)*10^3</f>
+        <v>2.7759962127483113E-2</v>
+      </c>
+      <c r="T75" s="116">
+        <f>T73*$B$1*10^(-7)*10^3</f>
+        <v>0.98611899999999997</v>
+      </c>
+      <c r="U75" s="112">
+        <f>U73*$B$1*10^(-7)*10^3</f>
+        <v>1.0285170000000001</v>
+      </c>
+      <c r="V75" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="W75" s="132">
+        <f>W73*$B$1*10^(-7)*10^3</f>
+        <v>3.4356999999999999E-2</v>
+      </c>
+      <c r="X75" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="74"/>
+      <c r="AB75" s="99">
+        <f>AB73*$E$1/10</f>
+        <v>336.46359865524698</v>
+      </c>
+      <c r="AC75" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD75" s="102">
+        <f>AD73*$E$1*10^(-7)*10^6</f>
+        <v>10.419489261136521</v>
+      </c>
+      <c r="AE75" s="100">
+        <f>AE73*$E$1/10</f>
+        <v>2.7772709999999998</v>
+      </c>
+      <c r="AF75" s="85" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B76" s="36"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
-      <c r="S76" s="37"/>
-      <c r="T76" s="37"/>
-      <c r="U76" s="37"/>
-      <c r="V76" s="37"/>
-      <c r="W76" s="37"/>
-      <c r="X76" s="38"/>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B76" s="33"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="34"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
+      <c r="Q76" s="34"/>
+      <c r="R76" s="34"/>
+      <c r="S76" s="124"/>
+      <c r="T76" s="34"/>
+      <c r="U76" s="106"/>
+      <c r="V76" s="106"/>
+      <c r="W76" s="130"/>
+      <c r="X76" s="34"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
+      <c r="AB76" s="34"/>
+      <c r="AC76" s="34"/>
+      <c r="AD76" s="34"/>
+      <c r="AE76" s="34"/>
+      <c r="AF76" s="34"/>
     </row>
-    <row r="77" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="75"/>
-      <c r="C77" s="76"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="76"/>
-      <c r="M77" s="76"/>
-      <c r="N77" s="76"/>
-      <c r="O77" s="76"/>
-      <c r="P77" s="76"/>
-      <c r="Q77" s="76"/>
-      <c r="R77" s="76"/>
-      <c r="S77" s="76"/>
-      <c r="T77" s="76"/>
-      <c r="U77" s="76"/>
-      <c r="V77" s="76"/>
-      <c r="W77" s="76"/>
-      <c r="X77" s="77"/>
+    <row r="77" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="70"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="71"/>
+      <c r="I77" s="71"/>
+      <c r="J77" s="71"/>
+      <c r="K77" s="71"/>
+      <c r="L77" s="71"/>
+      <c r="M77" s="71"/>
+      <c r="N77" s="71"/>
+      <c r="O77" s="71"/>
+      <c r="P77" s="71"/>
+      <c r="Q77" s="71"/>
+      <c r="R77" s="84"/>
+      <c r="S77" s="129"/>
+      <c r="T77" s="71"/>
+      <c r="U77" s="108"/>
+      <c r="V77" s="108"/>
+      <c r="W77" s="131"/>
+      <c r="X77" s="71"/>
+      <c r="Y77" s="71"/>
+      <c r="Z77" s="71"/>
+      <c r="AA77" s="71"/>
+      <c r="AB77" s="71"/>
+      <c r="AC77" s="71"/>
+      <c r="AD77" s="71"/>
+      <c r="AE77" s="71"/>
+      <c r="AF77" s="34"/>
     </row>
-    <row r="78" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="72"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="73"/>
-      <c r="I79" s="73"/>
-      <c r="J79" s="73"/>
-      <c r="K79" s="73"/>
-      <c r="L79" s="73"/>
-      <c r="M79" s="73"/>
-      <c r="N79" s="73"/>
-      <c r="O79" s="73"/>
-      <c r="P79" s="73"/>
-      <c r="Q79" s="73"/>
-      <c r="R79" s="73"/>
-      <c r="S79" s="73"/>
-      <c r="T79" s="73"/>
-      <c r="U79" s="73"/>
-      <c r="V79" s="73"/>
-      <c r="W79" s="73"/>
-      <c r="X79" s="74"/>
+    <row r="78" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U78" s="110"/>
+      <c r="V78" s="110"/>
+      <c r="W78" s="133"/>
+      <c r="AD78" s="34"/>
+      <c r="AF78" s="34"/>
     </row>
-    <row r="80" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="36"/>
-      <c r="C80" s="69" t="s">
+    <row r="79" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="68"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="69"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="69"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="69"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="69"/>
+      <c r="O79" s="69"/>
+      <c r="P79" s="69"/>
+      <c r="Q79" s="69"/>
+      <c r="R79" s="69"/>
+      <c r="S79" s="123"/>
+      <c r="T79" s="69"/>
+      <c r="U79" s="88"/>
+      <c r="V79" s="88"/>
+      <c r="W79" s="120"/>
+      <c r="X79" s="69"/>
+      <c r="Y79" s="69"/>
+      <c r="Z79" s="69"/>
+      <c r="AA79" s="69"/>
+      <c r="AB79" s="69"/>
+      <c r="AC79" s="69"/>
+      <c r="AD79" s="69"/>
+      <c r="AE79" s="69"/>
+      <c r="AF79" s="34"/>
+    </row>
+    <row r="80" spans="2:32" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="33"/>
+      <c r="C80" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="70">
+      <c r="D80" s="66">
         <v>4.7</v>
       </c>
-      <c r="E80" s="71" t="s">
+      <c r="E80" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F80" s="37"/>
-      <c r="G80" s="33" t="s">
+      <c r="F80" s="34"/>
+      <c r="G80" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H80" s="28" t="s">
+      <c r="H80" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I80" s="28" t="s">
+      <c r="I80" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J80" s="28" t="s">
+      <c r="J80" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K80" s="28" t="s">
+      <c r="K80" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L80" s="29" t="s">
+      <c r="L80" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="37"/>
-      <c r="T80" s="37"/>
-      <c r="U80" s="37"/>
-      <c r="V80" s="37"/>
-      <c r="W80" s="37"/>
-      <c r="X80" s="38"/>
+      <c r="M80" s="34"/>
+      <c r="N80" s="34"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
+      <c r="Q80" s="34"/>
+      <c r="R80" s="34"/>
+      <c r="S80" s="124"/>
+      <c r="T80" s="34"/>
+      <c r="U80" s="106"/>
+      <c r="V80" s="106"/>
+      <c r="W80" s="130"/>
+      <c r="X80" s="34"/>
+      <c r="Y80" s="34"/>
+      <c r="Z80" s="34"/>
+      <c r="AA80" s="34"/>
+      <c r="AB80" s="34"/>
+      <c r="AC80" s="34"/>
+      <c r="AD80" s="34"/>
+      <c r="AE80" s="34"/>
+      <c r="AF80" s="34"/>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B81" s="36"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="57" t="s">
+    <row r="81" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B81" s="33"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H81" s="58">
+      <c r="H81" s="54">
         <v>6</v>
       </c>
-      <c r="I81" s="58">
+      <c r="I81" s="54">
         <v>12.010999999999999</v>
       </c>
-      <c r="J81" s="59">
+      <c r="J81" s="55">
         <f>((SQRT(1-(1/I81)^2*SIN(RADIANS(165))^2)+1/I81*COS(RADIANS(165)))/(1+1/I81))^2</f>
         <v>0.72027206504080021</v>
       </c>
-      <c r="K81" s="63">
+      <c r="K81" s="59">
         <f>$D$80*1000*J81</f>
         <v>3385.2787056917609</v>
       </c>
-      <c r="L81" s="60">
+      <c r="L81" s="56">
         <v>317.5</v>
       </c>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="37"/>
-      <c r="V81" s="37"/>
-      <c r="W81" s="37"/>
-      <c r="X81" s="38"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
+      <c r="Q81" s="34"/>
+      <c r="R81" s="34"/>
+      <c r="S81" s="124"/>
+      <c r="T81" s="34"/>
+      <c r="U81" s="106"/>
+      <c r="V81" s="106"/>
+      <c r="W81" s="130"/>
+      <c r="X81" s="34"/>
+      <c r="Y81" s="34"/>
+      <c r="Z81" s="34"/>
+      <c r="AA81" s="34"/>
+      <c r="AB81" s="34"/>
+      <c r="AC81" s="34"/>
+      <c r="AD81" s="34"/>
+      <c r="AE81" s="34"/>
+      <c r="AF81" s="34"/>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B82" s="36"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="52" t="s">
+    <row r="82" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H82" s="53">
+      <c r="H82" s="49">
         <v>8</v>
       </c>
-      <c r="I82" s="54">
+      <c r="I82" s="50">
         <v>15.999000000000001</v>
       </c>
-      <c r="J82" s="55">
+      <c r="J82" s="51">
         <f t="shared" ref="J82:J83" si="8">((SQRT(1-(1/I82)^2*SIN(RADIANS(165))^2)+1/I82*COS(RADIANS(165)))/(1+1/I82))^2</f>
         <v>0.78185798881983415</v>
       </c>
-      <c r="K82" s="64">
+      <c r="K82" s="60">
         <f t="shared" ref="K82:K83" si="9">$D$80*1000*J82</f>
         <v>3674.7325474532204</v>
       </c>
-      <c r="L82" s="56">
+      <c r="L82" s="52">
         <v>346.5</v>
       </c>
-      <c r="M82" s="37"/>
-      <c r="N82" s="37"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="37"/>
-      <c r="S82" s="37"/>
-      <c r="T82" s="37"/>
-      <c r="U82" s="37"/>
-      <c r="V82" s="37"/>
-      <c r="W82" s="37"/>
-      <c r="X82" s="38"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="34"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
+      <c r="Q82" s="34"/>
+      <c r="R82" s="34"/>
+      <c r="S82" s="124"/>
+      <c r="T82" s="34"/>
+      <c r="U82" s="106"/>
+      <c r="V82" s="106"/>
+      <c r="W82" s="130"/>
+      <c r="X82" s="34"/>
+      <c r="Y82" s="34"/>
+      <c r="Z82" s="34"/>
+      <c r="AA82" s="34"/>
+      <c r="AB82" s="34"/>
+      <c r="AC82" s="34"/>
+      <c r="AD82" s="34"/>
+      <c r="AE82" s="34"/>
+      <c r="AF82" s="34"/>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B83" s="36"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37">
+    <row r="83" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B83" s="33"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34">
         <f t="array" ref="D83:E86">LINEST(K81:K84,L81:L84,TRUE,TRUE)</f>
         <v>10.028282738820089</v>
       </c>
-      <c r="E83" s="37">
+      <c r="E83" s="34">
         <v>215.99440361817187</v>
       </c>
-      <c r="F83" s="37"/>
-      <c r="G83" s="31" t="s">
+      <c r="F83" s="34"/>
+      <c r="G83" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H83" s="30">
+      <c r="H83" s="27">
         <v>13</v>
       </c>
-      <c r="I83" s="30">
+      <c r="I83" s="27">
         <v>26.98</v>
       </c>
-      <c r="J83" s="51">
+      <c r="J83" s="47">
         <f t="shared" si="8"/>
         <v>0.86433057478706143</v>
       </c>
-      <c r="K83" s="65">
+      <c r="K83" s="61">
         <f t="shared" si="9"/>
         <v>4062.3537014991889</v>
       </c>
-      <c r="L83" s="32">
+      <c r="L83" s="29">
         <v>378</v>
       </c>
-      <c r="M83" s="37"/>
-      <c r="N83" s="37"/>
-      <c r="O83" s="37"/>
-      <c r="P83" s="37"/>
-      <c r="Q83" s="37"/>
-      <c r="R83" s="37"/>
-      <c r="S83" s="37"/>
-      <c r="T83" s="37"/>
-      <c r="U83" s="37"/>
-      <c r="V83" s="37"/>
-      <c r="W83" s="37"/>
-      <c r="X83" s="38"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="34"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
+      <c r="Q83" s="34"/>
+      <c r="R83" s="34"/>
+      <c r="S83" s="124"/>
+      <c r="T83" s="34"/>
+      <c r="U83" s="106"/>
+      <c r="V83" s="106"/>
+      <c r="W83" s="130"/>
+      <c r="X83" s="34"/>
+      <c r="Y83" s="34"/>
+      <c r="Z83" s="34"/>
+      <c r="AA83" s="34"/>
+      <c r="AB83" s="34"/>
+      <c r="AC83" s="34"/>
+      <c r="AD83" s="34"/>
+      <c r="AE83" s="34"/>
+      <c r="AF83" s="34"/>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="36"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37">
+    <row r="84" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B84" s="33"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34">
         <v>0.52999498018827829</v>
       </c>
-      <c r="E84" s="37">
+      <c r="E84" s="34">
         <v>196.90374545342524</v>
       </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="44" t="s">
+      <c r="F84" s="34"/>
+      <c r="G84" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H84" s="42">
+      <c r="H84" s="38">
         <v>50</v>
       </c>
-      <c r="I84" s="42">
+      <c r="I84" s="38">
         <v>116</v>
       </c>
-      <c r="J84" s="43">
+      <c r="J84" s="39">
         <f>((SQRT(1-(1/I84)^2*SIN(RADIANS(165))^2)+1/I84*COS(RADIANS(165)))/(1+1/I84))^2</f>
         <v>0.96667191113339779</v>
       </c>
-      <c r="K84" s="67">
+      <c r="K84" s="63">
         <f>$D$80*1000*J84</f>
         <v>4543.3579823269692</v>
       </c>
-      <c r="L84" s="47">
+      <c r="L84" s="43">
         <v>434</v>
       </c>
-      <c r="M84" s="37"/>
-      <c r="N84" s="37"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="37"/>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="37"/>
-      <c r="W84" s="37"/>
-      <c r="X84" s="38"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="34"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="34"/>
+      <c r="S84" s="124"/>
+      <c r="T84" s="34"/>
+      <c r="U84" s="106"/>
+      <c r="V84" s="106"/>
+      <c r="W84" s="130"/>
+      <c r="X84" s="34"/>
+      <c r="Y84" s="34"/>
+      <c r="Z84" s="34"/>
+      <c r="AA84" s="34"/>
+      <c r="AB84" s="34"/>
+      <c r="AC84" s="34"/>
+      <c r="AD84" s="34"/>
+      <c r="AE84" s="34"/>
+      <c r="AF84" s="34"/>
     </row>
-    <row r="85" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="36"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37">
+    <row r="85" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="33"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34">
         <v>0.99444478282660387</v>
       </c>
-      <c r="E85" s="37">
+      <c r="E85" s="34">
         <v>45.790155400265043</v>
       </c>
-      <c r="F85" s="37"/>
-      <c r="G85" s="45" t="s">
+      <c r="F85" s="34"/>
+      <c r="G85" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H85" s="46">
+      <c r="H85" s="42">
         <v>78</v>
       </c>
-      <c r="I85" s="46">
+      <c r="I85" s="42">
         <v>195.1</v>
       </c>
-      <c r="J85" s="50">
+      <c r="J85" s="46">
         <f>((SQRT(1-(1/I85)^2*SIN(RADIANS(165))^2)+1/I85*COS(RADIANS(165)))/(1+1/I85))^2</f>
         <v>0.9800485317759321</v>
       </c>
-      <c r="K85" s="68">
+      <c r="K85" s="64">
         <f>$D$80*1000*J85</f>
         <v>4606.2280993468812</v>
       </c>
-      <c r="L85" s="48"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="37"/>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="37"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="37"/>
-      <c r="X85" s="38"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="34"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
+      <c r="Q85" s="34"/>
+      <c r="R85" s="34"/>
+      <c r="S85" s="124"/>
+      <c r="T85" s="34"/>
+      <c r="U85" s="106"/>
+      <c r="V85" s="106"/>
+      <c r="W85" s="130"/>
+      <c r="X85" s="34"/>
+      <c r="Y85" s="34"/>
+      <c r="Z85" s="34"/>
+      <c r="AA85" s="34"/>
+      <c r="AB85" s="34"/>
+      <c r="AC85" s="34"/>
+      <c r="AD85" s="34"/>
+      <c r="AE85" s="34"/>
+      <c r="AF85" s="34"/>
     </row>
-    <row r="86" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="36"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37">
+    <row r="86" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B86" s="33"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34">
         <v>358.02192849956941</v>
       </c>
-      <c r="E86" s="37">
+      <c r="E86" s="34">
         <v>2</v>
       </c>
-      <c r="F86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="37"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="37"/>
-      <c r="X86" s="38"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="34"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
+      <c r="Q86" s="34"/>
+      <c r="R86" s="34"/>
+      <c r="S86" s="124"/>
+      <c r="T86" s="34"/>
+      <c r="U86" s="106"/>
+      <c r="V86" s="106"/>
+      <c r="W86" s="130"/>
+      <c r="X86" s="34"/>
+      <c r="Y86" s="34"/>
+      <c r="Z86" s="34"/>
+      <c r="AA86" s="34"/>
+      <c r="AB86" s="34"/>
+      <c r="AC86" s="34"/>
+      <c r="AD86" s="34"/>
+      <c r="AE86" s="34"/>
+      <c r="AF86" s="34"/>
     </row>
-    <row r="87" spans="2:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="36"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="37"/>
+    <row r="87" spans="2:32" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="33"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
       <c r="M87" s="2" t="s">
         <v>9</v>
       </c>
@@ -10607,139 +11815,171 @@
       <c r="Q87" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R87" s="37"/>
-      <c r="S87" s="9" t="s">
+      <c r="R87" s="34"/>
+      <c r="S87" s="124"/>
+      <c r="T87" s="34"/>
+      <c r="U87" s="106"/>
+      <c r="V87" s="106"/>
+      <c r="W87" s="130"/>
+      <c r="X87" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T87" s="10" t="s">
+      <c r="Y87" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U87" s="9" t="s">
+      <c r="Z87" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V87" s="10" t="s">
+      <c r="AA87" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="W87" s="11" t="s">
+      <c r="AB87" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X87" s="38"/>
+      <c r="AC87" s="34"/>
+      <c r="AD87" s="34"/>
+      <c r="AE87" s="34"/>
+      <c r="AF87" s="34"/>
     </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B88" s="36"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="6">
+    <row r="88" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B88" s="33"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="5">
         <v>36.340000000000003</v>
       </c>
-      <c r="N88" s="15">
+      <c r="N88" s="13">
         <f>M88*$B$1/10</f>
         <v>26.564540000000001</v>
       </c>
-      <c r="O88" s="19">
+      <c r="O88" s="17">
         <v>37.130000000000003</v>
       </c>
-      <c r="P88" s="6">
+      <c r="P88" s="5">
         <f>O88*$B$1/10</f>
         <v>27.142029999999998</v>
       </c>
-      <c r="Q88" s="18">
+      <c r="Q88" s="16">
         <f>(($J$47/COS(RADIANS(0))*$N$88)+(1/COS(RADIANS(180-165))*$P$88))</f>
         <v>53.778691797155474</v>
       </c>
-      <c r="R88" s="37"/>
-      <c r="S88" s="26">
+      <c r="R88" s="34"/>
+      <c r="S88" s="124"/>
+      <c r="T88" s="34"/>
+      <c r="U88" s="106"/>
+      <c r="V88" s="106"/>
+      <c r="W88" s="130"/>
+      <c r="X88" s="23">
         <v>61.11</v>
       </c>
-      <c r="T88" s="15">
-        <f>S88*$E$1/10</f>
+      <c r="Y88" s="13">
+        <f>X88*$E$1/10</f>
         <v>16.493589</v>
       </c>
-      <c r="U88" s="26">
+      <c r="Z88" s="23">
         <v>66.319999999999993</v>
       </c>
-      <c r="V88" s="6">
-        <f>U88*$E$1/10</f>
+      <c r="AA88" s="5">
+        <f>Z88*$E$1/10</f>
         <v>17.899767999999998</v>
       </c>
-      <c r="W88" s="14">
-        <f>(($J$45/COS(RADIANS(0))*T88)+(1/COS(RADIANS(180-165))*V88))</f>
+      <c r="AB88" s="12">
+        <f>(($J$45/COS(RADIANS(0))*Y88)+(1/COS(RADIANS(180-165))*AA88))</f>
         <v>32.787116705938182</v>
       </c>
-      <c r="X88" s="38"/>
+      <c r="AC88" s="34"/>
+      <c r="AD88" s="34"/>
+      <c r="AE88" s="34"/>
+      <c r="AF88" s="34"/>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B89" s="36"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-      <c r="S89" s="37"/>
-      <c r="T89" s="37"/>
-      <c r="U89" s="37"/>
-      <c r="V89" s="37"/>
-      <c r="W89" s="37"/>
-      <c r="X89" s="38"/>
+    <row r="89" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B89" s="33"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="34"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
+      <c r="Q89" s="34"/>
+      <c r="R89" s="34"/>
+      <c r="S89" s="124"/>
+      <c r="T89" s="34"/>
+      <c r="U89" s="106"/>
+      <c r="V89" s="106"/>
+      <c r="W89" s="130"/>
+      <c r="X89" s="34"/>
+      <c r="Y89" s="34"/>
+      <c r="Z89" s="34"/>
+      <c r="AA89" s="34"/>
+      <c r="AB89" s="34"/>
+      <c r="AC89" s="34"/>
+      <c r="AD89" s="34"/>
+      <c r="AE89" s="34"/>
+      <c r="AF89" s="34"/>
     </row>
-    <row r="90" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="36"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="37"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
-      <c r="N90" s="37"/>
-      <c r="O90" s="37"/>
-      <c r="P90" s="37"/>
-      <c r="Q90" s="37"/>
-      <c r="R90" s="37"/>
-      <c r="S90" s="37"/>
-      <c r="T90" s="37"/>
-      <c r="U90" s="37"/>
-      <c r="V90" s="37"/>
-      <c r="W90" s="37"/>
-      <c r="X90" s="38"/>
+    <row r="90" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="33"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="34"/>
+      <c r="N90" s="34"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
+      <c r="Q90" s="34"/>
+      <c r="R90" s="34"/>
+      <c r="S90" s="124"/>
+      <c r="T90" s="34"/>
+      <c r="U90" s="106"/>
+      <c r="V90" s="106"/>
+      <c r="W90" s="130"/>
+      <c r="X90" s="34"/>
+      <c r="Y90" s="34"/>
+      <c r="Z90" s="34"/>
+      <c r="AA90" s="34"/>
+      <c r="AB90" s="34"/>
+      <c r="AC90" s="34"/>
+      <c r="AD90" s="34"/>
+      <c r="AE90" s="34"/>
+      <c r="AF90" s="34"/>
     </row>
-    <row r="91" spans="2:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="36"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="13" t="s">
-        <v>35</v>
+    <row r="91" spans="2:32" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B91" s="33"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>17</v>
@@ -10750,504 +11990,680 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="5" t="s">
+      <c r="Q91" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="R91" s="37"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="8" t="s">
+      <c r="R91" s="75"/>
+      <c r="S91" s="125"/>
+      <c r="T91" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="U91" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="V91" s="106"/>
+      <c r="W91" s="130"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="U91" s="9" t="s">
+      <c r="Z91" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V91" s="10" t="s">
+      <c r="AA91" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="12" t="s">
+      <c r="AB91" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="X91" s="38"/>
+      <c r="AC91" s="97"/>
+      <c r="AD91" s="97"/>
+      <c r="AE91" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF91" s="34"/>
     </row>
-    <row r="92" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="36"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="37"/>
-      <c r="K92" s="37"/>
-      <c r="L92" s="37"/>
-      <c r="M92" s="27"/>
-      <c r="N92" s="20">
+    <row r="92" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B92" s="33"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="18">
         <v>434</v>
       </c>
-      <c r="O92" s="21">
+      <c r="O92" s="19">
         <v>425.5</v>
       </c>
-      <c r="P92" s="25">
+      <c r="P92" s="22">
         <f>(N92-O92)*D83</f>
         <v>85.240403279970749</v>
       </c>
-      <c r="Q92" s="23">
-        <f>P92*10^3/$Q$88</f>
+      <c r="Q92" s="83">
+        <f>P92*10^3/Q88</f>
         <v>1585.021881928325</v>
       </c>
-      <c r="R92" s="37"/>
-      <c r="S92" s="24"/>
-      <c r="T92" s="20">
+      <c r="R92" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="S92" s="126">
+        <f>Q92/D83*D84</f>
+        <v>83.768443988789002</v>
+      </c>
+      <c r="T92" s="113">
+        <v>1497</v>
+      </c>
+      <c r="U92" s="111">
+        <v>1661</v>
+      </c>
+      <c r="V92" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="W92" s="130">
+        <v>66</v>
+      </c>
+      <c r="X92" s="21"/>
+      <c r="Y92" s="18">
         <v>378</v>
       </c>
-      <c r="U92" s="21">
+      <c r="Z92" s="19">
         <v>373.5</v>
       </c>
-      <c r="V92" s="22">
-        <f>(T92-U92)*D83</f>
+      <c r="AA92" s="20">
+        <f>(Y92-Z92)*D83</f>
         <v>45.127272324690395</v>
       </c>
-      <c r="W92" s="23">
-        <f>V92*10^3/$W$88</f>
+      <c r="AB92" s="98">
+        <f>AA92*10^3/AB88</f>
         <v>1376.3720893614668</v>
       </c>
-      <c r="X92" s="38"/>
+      <c r="AC92" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD92" s="87">
+        <f>AB92/D83*D84</f>
+        <v>72.741297511388083</v>
+      </c>
+      <c r="AE92" s="89">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AF92" s="34"/>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="36"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="37"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q93" s="37"/>
-      <c r="R93" s="37"/>
-      <c r="S93" s="37"/>
-      <c r="T93" s="37"/>
-      <c r="U93" s="37"/>
-      <c r="V93" s="37"/>
-      <c r="W93" s="37"/>
-      <c r="X93" s="38"/>
+    <row r="93" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B93" s="33"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="34"/>
+      <c r="N93" s="34"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="73"/>
+      <c r="Q93" s="90"/>
+      <c r="R93" s="88"/>
+      <c r="S93" s="127"/>
+      <c r="T93" s="113"/>
+      <c r="U93" s="111"/>
+      <c r="V93" s="107"/>
+      <c r="W93" s="131"/>
+      <c r="X93" s="71"/>
+      <c r="Y93" s="34"/>
+      <c r="Z93" s="34"/>
+      <c r="AA93" s="73"/>
+      <c r="AB93" s="90"/>
+      <c r="AC93" s="88"/>
+      <c r="AD93" s="88"/>
+      <c r="AE93" s="89"/>
+      <c r="AF93" s="34"/>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B94" s="36"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="37"/>
-      <c r="K94" s="37"/>
-      <c r="L94" s="37"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="37"/>
-      <c r="O94" s="37"/>
-      <c r="P94" s="37"/>
-      <c r="Q94" s="37"/>
-      <c r="R94" s="37"/>
-      <c r="S94" s="37"/>
-      <c r="T94" s="37"/>
-      <c r="U94" s="37"/>
-      <c r="V94" s="37"/>
-      <c r="W94" s="37"/>
-      <c r="X94" s="38"/>
+    <row r="94" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B94" s="33"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="34"/>
+      <c r="M94" s="34"/>
+      <c r="N94" s="34"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="74"/>
+      <c r="Q94" s="103">
+        <f>Q92*$B$1*10^(-7)*10^3</f>
+        <v>1.1586509956896056</v>
+      </c>
+      <c r="R94" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="S94" s="128">
+        <f>S92*$B$1*10^(-7)*10^3</f>
+        <v>6.1234732555804756E-2</v>
+      </c>
+      <c r="T94" s="114">
+        <f>T92*$B$1*10^(-7)*10^3</f>
+        <v>1.0943069999999999</v>
+      </c>
+      <c r="U94" s="112">
+        <f>U92*$B$1*10^(-7)*10^3</f>
+        <v>1.2141909999999998</v>
+      </c>
+      <c r="V94" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="W94" s="132">
+        <f>W92*$B$1*10^(-7)*10^3</f>
+        <v>4.8245999999999997E-2</v>
+      </c>
+      <c r="X94" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y94" s="34"/>
+      <c r="Z94" s="34"/>
+      <c r="AA94" s="74"/>
+      <c r="AB94" s="99">
+        <f>AB92*$E$1/10</f>
+        <v>371.4828269186599</v>
+      </c>
+      <c r="AC94" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD94" s="102">
+        <f>AD92*$E$1*10^(-7)*10^6</f>
+        <v>19.63287619832364</v>
+      </c>
+      <c r="AE94" s="100">
+        <f>AE92*$E$1/10</f>
+        <v>2.5100699999999998</v>
+      </c>
+      <c r="AF94" s="85" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B95" s="36"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="37"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="37"/>
-      <c r="O95" s="37"/>
-      <c r="P95" s="37"/>
-      <c r="Q95" s="37"/>
-      <c r="R95" s="37"/>
-      <c r="S95" s="37"/>
-      <c r="T95" s="37"/>
-      <c r="U95" s="37"/>
-      <c r="V95" s="37"/>
-      <c r="W95" s="37"/>
-      <c r="X95" s="38"/>
+    <row r="95" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B95" s="33"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="34"/>
+      <c r="M95" s="34"/>
+      <c r="N95" s="34"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
+      <c r="Q95" s="34"/>
+      <c r="R95" s="34"/>
+      <c r="S95" s="124"/>
+      <c r="T95" s="34"/>
+      <c r="U95" s="106"/>
+      <c r="V95" s="106"/>
+      <c r="W95" s="130"/>
+      <c r="X95" s="34"/>
+      <c r="Y95" s="34"/>
+      <c r="Z95" s="34"/>
+      <c r="AA95" s="34"/>
+      <c r="AB95" s="34"/>
+      <c r="AC95" s="34"/>
+      <c r="AD95" s="34"/>
+      <c r="AE95" s="34"/>
+      <c r="AF95" s="34"/>
     </row>
-    <row r="96" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="75"/>
-      <c r="C96" s="76"/>
-      <c r="D96" s="76"/>
-      <c r="E96" s="76"/>
-      <c r="F96" s="76"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="76"/>
-      <c r="I96" s="76"/>
-      <c r="J96" s="76"/>
-      <c r="K96" s="76"/>
-      <c r="L96" s="76"/>
-      <c r="M96" s="76"/>
-      <c r="N96" s="76"/>
-      <c r="O96" s="76"/>
-      <c r="P96" s="76"/>
-      <c r="Q96" s="76"/>
-      <c r="R96" s="76"/>
-      <c r="S96" s="76"/>
-      <c r="T96" s="76"/>
-      <c r="U96" s="76"/>
-      <c r="V96" s="76"/>
-      <c r="W96" s="76"/>
-      <c r="X96" s="77"/>
+    <row r="96" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B96" s="70"/>
+      <c r="C96" s="71"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="71"/>
+      <c r="J96" s="71"/>
+      <c r="K96" s="71"/>
+      <c r="L96" s="71"/>
+      <c r="M96" s="71"/>
+      <c r="N96" s="71"/>
+      <c r="O96" s="71"/>
+      <c r="P96" s="71"/>
+      <c r="Q96" s="71"/>
+      <c r="R96" s="84"/>
+      <c r="S96" s="129"/>
+      <c r="T96" s="71"/>
+      <c r="U96" s="108"/>
+      <c r="V96" s="108"/>
+      <c r="W96" s="131"/>
+      <c r="X96" s="71"/>
+      <c r="Y96" s="71"/>
+      <c r="Z96" s="71"/>
+      <c r="AA96" s="71"/>
+      <c r="AB96" s="71"/>
+      <c r="AC96" s="71"/>
+      <c r="AD96" s="71"/>
+      <c r="AE96" s="71"/>
+      <c r="AF96" s="34"/>
     </row>
-    <row r="97" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="72"/>
-      <c r="C98" s="73"/>
-      <c r="D98" s="73"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="73"/>
-      <c r="H98" s="73"/>
-      <c r="I98" s="73"/>
-      <c r="J98" s="73"/>
-      <c r="K98" s="73"/>
-      <c r="L98" s="73"/>
-      <c r="M98" s="73"/>
-      <c r="N98" s="73"/>
-      <c r="O98" s="73"/>
-      <c r="P98" s="73"/>
-      <c r="Q98" s="73"/>
-      <c r="R98" s="73"/>
-      <c r="S98" s="73"/>
-      <c r="T98" s="73"/>
-      <c r="U98" s="73"/>
-      <c r="V98" s="73"/>
-      <c r="W98" s="73"/>
-      <c r="X98" s="74"/>
+    <row r="97" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U97" s="110"/>
+      <c r="V97" s="110"/>
+      <c r="W97" s="133"/>
+      <c r="AD97" s="34"/>
+      <c r="AF97" s="34"/>
     </row>
-    <row r="99" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="36"/>
-      <c r="C99" s="69" t="s">
+    <row r="98" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="68"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="69"/>
+      <c r="M98" s="69"/>
+      <c r="N98" s="69"/>
+      <c r="O98" s="69"/>
+      <c r="P98" s="69"/>
+      <c r="Q98" s="69"/>
+      <c r="R98" s="69"/>
+      <c r="S98" s="123"/>
+      <c r="T98" s="69"/>
+      <c r="U98" s="88"/>
+      <c r="V98" s="88"/>
+      <c r="W98" s="120"/>
+      <c r="X98" s="69"/>
+      <c r="Y98" s="69"/>
+      <c r="Z98" s="69"/>
+      <c r="AA98" s="69"/>
+      <c r="AB98" s="69"/>
+      <c r="AC98" s="69"/>
+      <c r="AD98" s="69"/>
+      <c r="AE98" s="69"/>
+      <c r="AF98" s="34"/>
+    </row>
+    <row r="99" spans="2:32" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B99" s="33"/>
+      <c r="C99" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="78">
+      <c r="D99" s="72">
         <v>5</v>
       </c>
-      <c r="E99" s="71" t="s">
+      <c r="E99" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F99" s="37"/>
-      <c r="G99" s="33" t="s">
+      <c r="F99" s="34"/>
+      <c r="G99" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H99" s="28" t="s">
+      <c r="H99" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I99" s="28" t="s">
+      <c r="I99" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J99" s="28" t="s">
+      <c r="J99" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K99" s="28" t="s">
+      <c r="K99" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L99" s="29" t="s">
+      <c r="L99" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M99" s="37"/>
-      <c r="N99" s="37"/>
-      <c r="O99" s="37"/>
-      <c r="P99" s="37"/>
-      <c r="Q99" s="37"/>
-      <c r="R99" s="37"/>
-      <c r="S99" s="37"/>
-      <c r="T99" s="37"/>
-      <c r="U99" s="37"/>
-      <c r="V99" s="37"/>
-      <c r="W99" s="37"/>
-      <c r="X99" s="38"/>
+      <c r="M99" s="34"/>
+      <c r="N99" s="34"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
+      <c r="Q99" s="34"/>
+      <c r="R99" s="34"/>
+      <c r="S99" s="124"/>
+      <c r="T99" s="34"/>
+      <c r="U99" s="106"/>
+      <c r="V99" s="106"/>
+      <c r="W99" s="130"/>
+      <c r="X99" s="34"/>
+      <c r="Y99" s="34"/>
+      <c r="Z99" s="34"/>
+      <c r="AA99" s="34"/>
+      <c r="AB99" s="34"/>
+      <c r="AC99" s="34"/>
+      <c r="AD99" s="34"/>
+      <c r="AE99" s="34"/>
+      <c r="AF99" s="34"/>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B100" s="36"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="57" t="s">
+    <row r="100" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B100" s="33"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H100" s="58">
+      <c r="H100" s="54">
         <v>6</v>
       </c>
-      <c r="I100" s="58">
+      <c r="I100" s="54">
         <v>12.010999999999999</v>
       </c>
-      <c r="J100" s="59">
+      <c r="J100" s="55">
         <f>((SQRT(1-(1/I100)^2*SIN(RADIANS(165))^2)+1/I100*COS(RADIANS(165)))/(1+1/I100))^2</f>
         <v>0.72027206504080021</v>
       </c>
-      <c r="K100" s="63">
+      <c r="K100" s="59">
         <f>$D$99*1000*J100</f>
         <v>3601.3603252040011</v>
       </c>
-      <c r="L100" s="60">
+      <c r="L100" s="56">
         <v>339</v>
       </c>
-      <c r="M100" s="37"/>
-      <c r="N100" s="37"/>
-      <c r="O100" s="37"/>
-      <c r="P100" s="37"/>
-      <c r="Q100" s="37"/>
-      <c r="R100" s="37"/>
-      <c r="S100" s="37"/>
-      <c r="T100" s="37"/>
-      <c r="U100" s="37"/>
-      <c r="V100" s="37"/>
-      <c r="W100" s="37"/>
-      <c r="X100" s="38"/>
+      <c r="M100" s="34"/>
+      <c r="N100" s="34"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
+      <c r="Q100" s="34"/>
+      <c r="R100" s="34"/>
+      <c r="S100" s="124"/>
+      <c r="T100" s="34"/>
+      <c r="U100" s="106"/>
+      <c r="V100" s="106"/>
+      <c r="W100" s="130"/>
+      <c r="X100" s="34"/>
+      <c r="Y100" s="34"/>
+      <c r="Z100" s="34"/>
+      <c r="AA100" s="34"/>
+      <c r="AB100" s="34"/>
+      <c r="AC100" s="34"/>
+      <c r="AD100" s="34"/>
+      <c r="AE100" s="34"/>
+      <c r="AF100" s="34"/>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B101" s="36"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="52" t="s">
+    <row r="101" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B101" s="33"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H101" s="53">
+      <c r="H101" s="49">
         <v>8</v>
       </c>
-      <c r="I101" s="54">
+      <c r="I101" s="50">
         <v>15.999000000000001</v>
       </c>
-      <c r="J101" s="55">
+      <c r="J101" s="51">
         <f t="shared" ref="J101:J103" si="10">((SQRT(1-(1/I101)^2*SIN(RADIANS(165))^2)+1/I101*COS(RADIANS(165)))/(1+1/I101))^2</f>
         <v>0.78185798881983415</v>
       </c>
-      <c r="K101" s="64">
+      <c r="K101" s="60">
         <f t="shared" ref="K101:K105" si="11">$D$99*1000*J101</f>
         <v>3909.289944099171</v>
       </c>
-      <c r="L101" s="56">
+      <c r="L101" s="52">
         <v>370.5</v>
       </c>
-      <c r="M101" s="37"/>
-      <c r="N101" s="37"/>
-      <c r="O101" s="37"/>
-      <c r="P101" s="37"/>
-      <c r="Q101" s="37"/>
-      <c r="R101" s="37"/>
-      <c r="S101" s="37"/>
-      <c r="T101" s="37"/>
-      <c r="U101" s="37"/>
-      <c r="V101" s="37"/>
-      <c r="W101" s="37"/>
-      <c r="X101" s="38"/>
+      <c r="M101" s="34"/>
+      <c r="N101" s="34"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
+      <c r="Q101" s="34"/>
+      <c r="R101" s="34"/>
+      <c r="S101" s="124"/>
+      <c r="T101" s="34"/>
+      <c r="U101" s="106"/>
+      <c r="V101" s="106"/>
+      <c r="W101" s="130"/>
+      <c r="X101" s="34"/>
+      <c r="Y101" s="34"/>
+      <c r="Z101" s="34"/>
+      <c r="AA101" s="34"/>
+      <c r="AB101" s="34"/>
+      <c r="AC101" s="34"/>
+      <c r="AD101" s="34"/>
+      <c r="AE101" s="34"/>
+      <c r="AF101" s="34"/>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B102" s="36"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37">
+    <row r="102" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B102" s="33"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34">
         <f t="array" ref="D102:E105">LINEST(K100:K105,L100:L105,TRUE,TRUE)</f>
         <v>9.80127738708428</v>
       </c>
-      <c r="E102" s="37">
+      <c r="E102" s="34">
         <v>294.51733917568345</v>
       </c>
-      <c r="F102" s="37"/>
-      <c r="G102" s="31" t="s">
+      <c r="F102" s="34"/>
+      <c r="G102" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H102" s="30">
+      <c r="H102" s="27">
         <v>13</v>
       </c>
-      <c r="I102" s="30">
+      <c r="I102" s="27">
         <v>26.98</v>
       </c>
-      <c r="J102" s="51">
+      <c r="J102" s="47">
         <f t="shared" si="10"/>
         <v>0.86433057478706143</v>
       </c>
-      <c r="K102" s="65">
+      <c r="K102" s="61">
         <f t="shared" si="11"/>
         <v>4321.6528739353071</v>
       </c>
-      <c r="L102" s="32">
+      <c r="L102" s="29">
         <v>405</v>
       </c>
-      <c r="M102" s="37"/>
-      <c r="N102" s="37"/>
-      <c r="O102" s="37"/>
-      <c r="P102" s="37"/>
-      <c r="Q102" s="37"/>
-      <c r="R102" s="37"/>
-      <c r="S102" s="37"/>
-      <c r="T102" s="37"/>
-      <c r="U102" s="37"/>
-      <c r="V102" s="37"/>
-      <c r="W102" s="37"/>
-      <c r="X102" s="38"/>
+      <c r="M102" s="34"/>
+      <c r="N102" s="34"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
+      <c r="Q102" s="34"/>
+      <c r="R102" s="34"/>
+      <c r="S102" s="124"/>
+      <c r="T102" s="34"/>
+      <c r="U102" s="106"/>
+      <c r="V102" s="106"/>
+      <c r="W102" s="130"/>
+      <c r="X102" s="34"/>
+      <c r="Y102" s="34"/>
+      <c r="Z102" s="34"/>
+      <c r="AA102" s="34"/>
+      <c r="AB102" s="34"/>
+      <c r="AC102" s="34"/>
+      <c r="AD102" s="34"/>
+      <c r="AE102" s="34"/>
+      <c r="AF102" s="34"/>
     </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B103" s="36"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37">
+    <row r="103" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B103" s="33"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34">
         <v>0.28321744167471208</v>
       </c>
-      <c r="E103" s="37">
+      <c r="E103" s="34">
         <v>117.04882382677867</v>
       </c>
-      <c r="F103" s="37"/>
-      <c r="G103" s="39" t="s">
+      <c r="F103" s="34"/>
+      <c r="G103" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H103" s="40">
+      <c r="H103" s="36">
         <v>14</v>
       </c>
-      <c r="I103" s="40">
+      <c r="I103" s="36">
         <v>28.09</v>
       </c>
-      <c r="J103" s="49">
+      <c r="J103" s="45">
         <f t="shared" si="10"/>
         <v>0.86932910407021868</v>
       </c>
-      <c r="K103" s="66">
+      <c r="K103" s="62">
         <f t="shared" si="11"/>
         <v>4346.6455203510932</v>
       </c>
-      <c r="L103" s="41">
+      <c r="L103" s="37">
         <v>413.5</v>
       </c>
-      <c r="M103" s="37"/>
-      <c r="N103" s="37"/>
-      <c r="O103" s="37"/>
-      <c r="P103" s="37"/>
-      <c r="Q103" s="37"/>
-      <c r="R103" s="37"/>
-      <c r="S103" s="37"/>
-      <c r="T103" s="37"/>
-      <c r="U103" s="37"/>
-      <c r="V103" s="37"/>
-      <c r="W103" s="37"/>
-      <c r="X103" s="38"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="34"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
+      <c r="Q103" s="34"/>
+      <c r="R103" s="34"/>
+      <c r="S103" s="124"/>
+      <c r="T103" s="34"/>
+      <c r="U103" s="106"/>
+      <c r="V103" s="106"/>
+      <c r="W103" s="130"/>
+      <c r="X103" s="34"/>
+      <c r="Y103" s="34"/>
+      <c r="Z103" s="34"/>
+      <c r="AA103" s="34"/>
+      <c r="AB103" s="34"/>
+      <c r="AC103" s="34"/>
+      <c r="AD103" s="34"/>
+      <c r="AE103" s="34"/>
+      <c r="AF103" s="34"/>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B104" s="36"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37">
+    <row r="104" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B104" s="33"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34">
         <v>0.99667120895590811</v>
       </c>
-      <c r="E104" s="37">
+      <c r="E104" s="34">
         <v>32.714628413016257</v>
       </c>
-      <c r="F104" s="37"/>
-      <c r="G104" s="44" t="s">
+      <c r="F104" s="34"/>
+      <c r="G104" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H104" s="42">
+      <c r="H104" s="38">
         <v>50</v>
       </c>
-      <c r="I104" s="42">
+      <c r="I104" s="38">
         <v>116</v>
       </c>
-      <c r="J104" s="43">
+      <c r="J104" s="39">
         <f>((SQRT(1-(1/I104)^2*SIN(RADIANS(165))^2)+1/I104*COS(RADIANS(165)))/(1+1/I104))^2</f>
         <v>0.96667191113339779</v>
       </c>
-      <c r="K104" s="67">
+      <c r="K104" s="63">
         <f t="shared" si="11"/>
         <v>4833.3595556669889</v>
       </c>
-      <c r="L104" s="47">
+      <c r="L104" s="43">
         <v>463.5</v>
       </c>
-      <c r="M104" s="37"/>
-      <c r="N104" s="37"/>
-      <c r="O104" s="37"/>
-      <c r="P104" s="37"/>
-      <c r="Q104" s="37"/>
-      <c r="R104" s="37"/>
-      <c r="S104" s="37"/>
-      <c r="T104" s="37"/>
-      <c r="U104" s="37"/>
-      <c r="V104" s="37"/>
-      <c r="W104" s="37"/>
-      <c r="X104" s="38"/>
+      <c r="M104" s="34"/>
+      <c r="N104" s="34"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
+      <c r="Q104" s="34"/>
+      <c r="R104" s="34"/>
+      <c r="S104" s="124"/>
+      <c r="T104" s="34"/>
+      <c r="U104" s="106"/>
+      <c r="V104" s="106"/>
+      <c r="W104" s="130"/>
+      <c r="X104" s="34"/>
+      <c r="Y104" s="34"/>
+      <c r="Z104" s="34"/>
+      <c r="AA104" s="34"/>
+      <c r="AB104" s="34"/>
+      <c r="AC104" s="34"/>
+      <c r="AD104" s="34"/>
+      <c r="AE104" s="34"/>
+      <c r="AF104" s="34"/>
     </row>
-    <row r="105" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="36"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37">
+    <row r="105" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B105" s="33"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34">
         <v>1197.637455465825</v>
       </c>
-      <c r="E105" s="37">
+      <c r="E105" s="34">
         <v>4</v>
       </c>
-      <c r="F105" s="37"/>
-      <c r="G105" s="45" t="s">
+      <c r="F105" s="34"/>
+      <c r="G105" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H105" s="46">
+      <c r="H105" s="42">
         <v>78</v>
       </c>
-      <c r="I105" s="46">
+      <c r="I105" s="42">
         <v>195.1</v>
       </c>
-      <c r="J105" s="50">
+      <c r="J105" s="46">
         <f>((SQRT(1-(1/I105)^2*SIN(RADIANS(165))^2)+1/I105*COS(RADIANS(165)))/(1+1/I105))^2</f>
         <v>0.9800485317759321</v>
       </c>
-      <c r="K105" s="68">
+      <c r="K105" s="64">
         <f t="shared" si="11"/>
         <v>4900.2426588796607</v>
       </c>
-      <c r="L105" s="48">
+      <c r="L105" s="44">
         <v>472</v>
       </c>
-      <c r="M105" s="37"/>
-      <c r="N105" s="37"/>
-      <c r="O105" s="37"/>
-      <c r="P105" s="37"/>
-      <c r="Q105" s="37"/>
-      <c r="R105" s="37"/>
-      <c r="S105" s="37"/>
-      <c r="T105" s="37"/>
-      <c r="U105" s="37"/>
-      <c r="V105" s="37"/>
-      <c r="W105" s="37"/>
-      <c r="X105" s="38"/>
+      <c r="M105" s="34"/>
+      <c r="N105" s="34"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
+      <c r="Q105" s="34"/>
+      <c r="R105" s="34"/>
+      <c r="S105" s="124"/>
+      <c r="T105" s="34"/>
+      <c r="U105" s="106"/>
+      <c r="V105" s="106"/>
+      <c r="W105" s="130"/>
+      <c r="X105" s="34"/>
+      <c r="Y105" s="34"/>
+      <c r="Z105" s="34"/>
+      <c r="AA105" s="34"/>
+      <c r="AB105" s="34"/>
+      <c r="AC105" s="34"/>
+      <c r="AD105" s="34"/>
+      <c r="AE105" s="34"/>
+      <c r="AF105" s="34"/>
     </row>
-    <row r="106" spans="2:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="36"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="37"/>
-      <c r="K106" s="37"/>
-      <c r="L106" s="37"/>
+    <row r="106" spans="2:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B106" s="33"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="34"/>
+      <c r="K106" s="34"/>
+      <c r="L106" s="34"/>
       <c r="M106" s="2" t="s">
         <v>9</v>
       </c>
@@ -11263,139 +12679,171 @@
       <c r="Q106" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R106" s="37"/>
-      <c r="S106" s="9" t="s">
+      <c r="R106" s="34"/>
+      <c r="S106" s="124"/>
+      <c r="T106" s="34"/>
+      <c r="U106" s="106"/>
+      <c r="V106" s="106"/>
+      <c r="W106" s="130"/>
+      <c r="X106" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T106" s="10" t="s">
+      <c r="Y106" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U106" s="9" t="s">
+      <c r="Z106" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V106" s="10" t="s">
+      <c r="AA106" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="W106" s="11" t="s">
+      <c r="AB106" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X106" s="38"/>
+      <c r="AC106" s="34"/>
+      <c r="AD106" s="34"/>
+      <c r="AE106" s="34"/>
+      <c r="AF106" s="34"/>
     </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B107" s="36"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="37"/>
-      <c r="I107" s="37"/>
-      <c r="J107" s="37"/>
-      <c r="K107" s="37"/>
-      <c r="L107" s="37"/>
-      <c r="M107" s="6">
+    <row r="107" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B107" s="33"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="34"/>
+      <c r="K107" s="34"/>
+      <c r="L107" s="34"/>
+      <c r="M107" s="5">
         <v>34.93</v>
       </c>
-      <c r="N107" s="15">
+      <c r="N107" s="13">
         <f>M107*$B$1/10</f>
         <v>25.533829999999998</v>
       </c>
-      <c r="O107" s="19">
+      <c r="O107" s="17">
         <v>35.700000000000003</v>
       </c>
-      <c r="P107" s="6">
+      <c r="P107" s="5">
         <f>O107*$B$1/10</f>
         <v>26.096699999999998</v>
       </c>
-      <c r="Q107" s="18">
+      <c r="Q107" s="16">
         <f>(($J$47/COS(RADIANS(0))*$N$107)+(1/COS(RADIANS(180-165))*$P$107))</f>
         <v>51.700128141963091</v>
       </c>
-      <c r="R107" s="37"/>
-      <c r="S107" s="26">
+      <c r="R107" s="34"/>
+      <c r="S107" s="124"/>
+      <c r="T107" s="34"/>
+      <c r="U107" s="106"/>
+      <c r="V107" s="106"/>
+      <c r="W107" s="130"/>
+      <c r="X107" s="23">
         <v>58.39</v>
       </c>
-      <c r="T107" s="15">
-        <f>S107*$E$1/10</f>
+      <c r="Y107" s="13">
+        <f>X107*$E$1/10</f>
         <v>15.759460999999998</v>
       </c>
-      <c r="U107" s="26">
+      <c r="Z107" s="23">
         <v>63.39</v>
       </c>
-      <c r="V107" s="6">
-        <f>U107*$E$1/10</f>
+      <c r="AA107" s="5">
+        <f>Z107*$E$1/10</f>
         <v>17.108961000000001</v>
       </c>
-      <c r="W107" s="14">
-        <f>(($J$102/COS(RADIANS(0))*T107)+(1/COS(RADIANS(180-165))*V107))</f>
+      <c r="AB107" s="12">
+        <f>(($J$102/COS(RADIANS(0))*Y107)+(1/COS(RADIANS(180-165))*AA107))</f>
         <v>31.333883779329351</v>
       </c>
-      <c r="X107" s="38"/>
+      <c r="AC107" s="34"/>
+      <c r="AD107" s="34"/>
+      <c r="AE107" s="34"/>
+      <c r="AF107" s="34"/>
     </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B108" s="36"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="37"/>
-      <c r="K108" s="37"/>
-      <c r="L108" s="37"/>
-      <c r="M108" s="37"/>
-      <c r="N108" s="37"/>
-      <c r="O108" s="37"/>
-      <c r="P108" s="37"/>
-      <c r="Q108" s="37"/>
-      <c r="R108" s="37"/>
-      <c r="S108" s="37"/>
-      <c r="T108" s="37"/>
-      <c r="U108" s="37"/>
-      <c r="V108" s="37"/>
-      <c r="W108" s="37"/>
-      <c r="X108" s="38"/>
+    <row r="108" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B108" s="33"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="34"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="34"/>
+      <c r="M108" s="34"/>
+      <c r="N108" s="34"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
+      <c r="Q108" s="34"/>
+      <c r="R108" s="34"/>
+      <c r="S108" s="124"/>
+      <c r="T108" s="34"/>
+      <c r="U108" s="106"/>
+      <c r="V108" s="106"/>
+      <c r="W108" s="130"/>
+      <c r="X108" s="34"/>
+      <c r="Y108" s="34"/>
+      <c r="Z108" s="34"/>
+      <c r="AA108" s="34"/>
+      <c r="AB108" s="34"/>
+      <c r="AC108" s="34"/>
+      <c r="AD108" s="34"/>
+      <c r="AE108" s="34"/>
+      <c r="AF108" s="34"/>
     </row>
-    <row r="109" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="36"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="37"/>
-      <c r="I109" s="37"/>
-      <c r="J109" s="37"/>
-      <c r="K109" s="37"/>
-      <c r="L109" s="37"/>
-      <c r="M109" s="37"/>
-      <c r="N109" s="37"/>
-      <c r="O109" s="37"/>
-      <c r="P109" s="37"/>
-      <c r="Q109" s="37"/>
-      <c r="R109" s="37"/>
-      <c r="S109" s="37"/>
-      <c r="T109" s="37"/>
-      <c r="U109" s="37"/>
-      <c r="V109" s="37"/>
-      <c r="W109" s="37"/>
-      <c r="X109" s="38"/>
+    <row r="109" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B109" s="33"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34"/>
+      <c r="K109" s="34"/>
+      <c r="L109" s="34"/>
+      <c r="M109" s="34"/>
+      <c r="N109" s="34"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
+      <c r="Q109" s="34"/>
+      <c r="R109" s="34"/>
+      <c r="S109" s="124"/>
+      <c r="T109" s="34"/>
+      <c r="U109" s="106"/>
+      <c r="V109" s="106"/>
+      <c r="W109" s="130"/>
+      <c r="X109" s="34"/>
+      <c r="Y109" s="34"/>
+      <c r="Z109" s="34"/>
+      <c r="AA109" s="34"/>
+      <c r="AB109" s="34"/>
+      <c r="AC109" s="34"/>
+      <c r="AD109" s="34"/>
+      <c r="AE109" s="34"/>
+      <c r="AF109" s="34"/>
     </row>
-    <row r="110" spans="2:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="36"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="37"/>
-      <c r="I110" s="37"/>
-      <c r="J110" s="37"/>
-      <c r="K110" s="37"/>
-      <c r="L110" s="37"/>
-      <c r="M110" s="13" t="s">
-        <v>36</v>
+    <row r="110" spans="2:32" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B110" s="33"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="34"/>
+      <c r="K110" s="34"/>
+      <c r="L110" s="34"/>
+      <c r="M110" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>17</v>
@@ -11406,171 +12854,277 @@
       <c r="P110" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q110" s="5" t="s">
+      <c r="Q110" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="R110" s="37"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="8" t="s">
+      <c r="R110" s="75"/>
+      <c r="S110" s="125"/>
+      <c r="T110" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="U110" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="V110" s="106"/>
+      <c r="W110" s="130"/>
+      <c r="X110" s="6"/>
+      <c r="Y110" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="U110" s="9" t="s">
+      <c r="Z110" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V110" s="10" t="s">
+      <c r="AA110" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="W110" s="12" t="s">
+      <c r="AB110" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="X110" s="38"/>
+      <c r="AC110" s="97"/>
+      <c r="AD110" s="97"/>
+      <c r="AE110" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF110" s="34"/>
     </row>
-    <row r="111" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="36"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="37"/>
-      <c r="K111" s="37"/>
-      <c r="L111" s="37"/>
-      <c r="M111" s="27"/>
-      <c r="N111" s="20">
+    <row r="111" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B111" s="33"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="34"/>
+      <c r="K111" s="34"/>
+      <c r="L111" s="34"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="18">
         <v>463.5</v>
       </c>
-      <c r="O111" s="21">
+      <c r="O111" s="19">
         <v>454.5</v>
       </c>
-      <c r="P111" s="25">
+      <c r="P111" s="22">
         <f>(N111-O111)*D102</f>
         <v>88.211496483758523</v>
       </c>
-      <c r="Q111" s="23">
-        <f>P111*10^3/$Q$107</f>
+      <c r="Q111" s="83">
+        <f>P111*10^3/Q107</f>
         <v>1706.2142716849573</v>
       </c>
-      <c r="R111" s="37"/>
-      <c r="S111" s="24"/>
-      <c r="T111" s="20">
+      <c r="R111" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="S111" s="126">
+        <f>Q111/D102*D103</f>
+        <v>49.302720644584134</v>
+      </c>
+      <c r="T111" s="115">
+        <v>1543</v>
+      </c>
+      <c r="U111" s="111">
+        <v>1708</v>
+      </c>
+      <c r="V111" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="W111" s="130">
+        <v>59</v>
+      </c>
+      <c r="X111" s="21"/>
+      <c r="Y111" s="18">
         <v>404</v>
       </c>
-      <c r="U111" s="21">
+      <c r="Z111" s="19">
         <v>401</v>
       </c>
-      <c r="V111" s="22">
-        <f>(T111-U111)*D102</f>
+      <c r="AA111" s="20">
+        <f>(Y111-Z111)*D102</f>
         <v>29.40383216125284</v>
       </c>
-      <c r="W111" s="23">
-        <f>V111*10^3/$W$107</f>
+      <c r="AB111" s="98">
+        <f>AA111*10^3/AB107</f>
         <v>938.40369002230921</v>
       </c>
-      <c r="X111" s="38"/>
+      <c r="AC111" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD111" s="87">
+        <f>AB111/D102*D103</f>
+        <v>27.116087204760856</v>
+      </c>
+      <c r="AE111" s="89">
+        <v>59.1</v>
+      </c>
+      <c r="AF111" s="34"/>
     </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B112" s="36"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="37"/>
-      <c r="I112" s="37"/>
-      <c r="J112" s="37"/>
-      <c r="K112" s="37"/>
-      <c r="L112" s="37"/>
-      <c r="M112" s="37"/>
-      <c r="N112" s="37"/>
-      <c r="O112" s="37"/>
-      <c r="P112" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q112" s="37"/>
-      <c r="R112" s="37"/>
-      <c r="S112" s="37"/>
-      <c r="T112" s="37"/>
-      <c r="U112" s="37"/>
-      <c r="V112" s="37"/>
-      <c r="W112" s="37"/>
-      <c r="X112" s="38"/>
+    <row r="112" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B112" s="33"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="34"/>
+      <c r="K112" s="34"/>
+      <c r="L112" s="34"/>
+      <c r="M112" s="34"/>
+      <c r="N112" s="34"/>
+      <c r="O112" s="34"/>
+      <c r="P112" s="73"/>
+      <c r="Q112" s="90"/>
+      <c r="R112" s="88"/>
+      <c r="S112" s="127"/>
+      <c r="T112" s="115"/>
+      <c r="U112" s="111"/>
+      <c r="V112" s="107"/>
+      <c r="W112" s="131"/>
+      <c r="X112" s="71"/>
+      <c r="Y112" s="34"/>
+      <c r="Z112" s="34"/>
+      <c r="AA112" s="73"/>
+      <c r="AB112" s="90"/>
+      <c r="AC112" s="88"/>
+      <c r="AD112" s="88"/>
+      <c r="AE112" s="89"/>
+      <c r="AF112" s="34"/>
     </row>
-    <row r="113" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B113" s="36"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="37"/>
-      <c r="F113" s="37"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="37"/>
-      <c r="I113" s="37"/>
-      <c r="J113" s="37"/>
-      <c r="K113" s="37"/>
-      <c r="L113" s="37"/>
-      <c r="M113" s="37"/>
-      <c r="N113" s="37"/>
-      <c r="O113" s="37"/>
-      <c r="P113" s="37"/>
-      <c r="Q113" s="37"/>
-      <c r="R113" s="37"/>
-      <c r="S113" s="37"/>
-      <c r="T113" s="37"/>
-      <c r="U113" s="37"/>
-      <c r="V113" s="37"/>
-      <c r="W113" s="37"/>
-      <c r="X113" s="38"/>
+    <row r="113" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B113" s="33"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="34"/>
+      <c r="K113" s="34"/>
+      <c r="L113" s="34"/>
+      <c r="M113" s="34"/>
+      <c r="N113" s="34"/>
+      <c r="O113" s="34"/>
+      <c r="P113" s="74"/>
+      <c r="Q113" s="103">
+        <f>Q111*$B$1*10^(-7)*10^3</f>
+        <v>1.2472426326017036</v>
+      </c>
+      <c r="R113" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="S113" s="128">
+        <f>S111*$B$1*10^(-7)*10^3</f>
+        <v>3.6040288791190998E-2</v>
+      </c>
+      <c r="T113" s="116">
+        <f>T111*$B$1*10^(-7)*10^3</f>
+        <v>1.1279330000000001</v>
+      </c>
+      <c r="U113" s="112">
+        <f>U111*$B$1*10^(-7)*10^3</f>
+        <v>1.248548</v>
+      </c>
+      <c r="V113" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="W113" s="132">
+        <f>W111*$B$1*10^(-7)*10^3</f>
+        <v>4.3128999999999994E-2</v>
+      </c>
+      <c r="X113" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y113" s="34"/>
+      <c r="Z113" s="34"/>
+      <c r="AA113" s="74"/>
+      <c r="AB113" s="99">
+        <f>AB111*$E$1/10</f>
+        <v>253.27515593702122</v>
+      </c>
+      <c r="AC113" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD113" s="102">
+        <f>AD111*$E$1*10^(-7)*10^6</f>
+        <v>7.3186319365649535</v>
+      </c>
+      <c r="AE113" s="100">
+        <f>AE111*$E$1/10</f>
+        <v>15.951089999999999</v>
+      </c>
+      <c r="AF113" s="85" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="114" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B114" s="36"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="37"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="37"/>
-      <c r="H114" s="37"/>
-      <c r="I114" s="37"/>
-      <c r="J114" s="37"/>
-      <c r="K114" s="37"/>
-      <c r="L114" s="37"/>
-      <c r="M114" s="37"/>
-      <c r="N114" s="37"/>
-      <c r="O114" s="37"/>
-      <c r="P114" s="37"/>
-      <c r="Q114" s="37"/>
-      <c r="R114" s="37"/>
-      <c r="S114" s="37"/>
-      <c r="T114" s="37"/>
-      <c r="U114" s="37"/>
-      <c r="V114" s="37"/>
-      <c r="W114" s="37"/>
-      <c r="X114" s="38"/>
+    <row r="114" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B114" s="33"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="34"/>
+      <c r="J114" s="34"/>
+      <c r="K114" s="34"/>
+      <c r="L114" s="34"/>
+      <c r="M114" s="34"/>
+      <c r="N114" s="34"/>
+      <c r="O114" s="34"/>
+      <c r="P114" s="34"/>
+      <c r="Q114" s="34"/>
+      <c r="R114" s="34"/>
+      <c r="S114" s="124"/>
+      <c r="T114" s="34"/>
+      <c r="U114" s="34"/>
+      <c r="V114" s="34"/>
+      <c r="W114" s="119"/>
+      <c r="X114" s="34"/>
+      <c r="Y114" s="34"/>
+      <c r="Z114" s="34"/>
+      <c r="AA114" s="34"/>
+      <c r="AB114" s="34"/>
+      <c r="AC114" s="34"/>
+      <c r="AD114" s="34"/>
+      <c r="AE114" s="34"/>
+      <c r="AF114" s="34"/>
     </row>
-    <row r="115" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="75"/>
-      <c r="C115" s="76"/>
-      <c r="D115" s="76"/>
-      <c r="E115" s="76"/>
-      <c r="F115" s="76"/>
-      <c r="G115" s="76"/>
-      <c r="H115" s="76"/>
-      <c r="I115" s="76"/>
-      <c r="J115" s="76"/>
-      <c r="K115" s="76"/>
-      <c r="L115" s="76"/>
-      <c r="M115" s="76"/>
-      <c r="N115" s="76"/>
-      <c r="O115" s="76"/>
-      <c r="P115" s="76"/>
-      <c r="Q115" s="76"/>
-      <c r="R115" s="76"/>
-      <c r="S115" s="76"/>
-      <c r="T115" s="76"/>
-      <c r="U115" s="76"/>
-      <c r="V115" s="76"/>
-      <c r="W115" s="76"/>
-      <c r="X115" s="77"/>
+    <row r="115" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B115" s="70"/>
+      <c r="C115" s="71"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="71"/>
+      <c r="H115" s="71"/>
+      <c r="I115" s="71"/>
+      <c r="J115" s="71"/>
+      <c r="K115" s="71"/>
+      <c r="L115" s="71"/>
+      <c r="M115" s="71"/>
+      <c r="N115" s="71"/>
+      <c r="O115" s="71"/>
+      <c r="P115" s="71"/>
+      <c r="Q115" s="71"/>
+      <c r="R115" s="84"/>
+      <c r="S115" s="129"/>
+      <c r="T115" s="71"/>
+      <c r="U115" s="71"/>
+      <c r="V115" s="71"/>
+      <c r="W115" s="121"/>
+      <c r="X115" s="71"/>
+      <c r="Y115" s="71"/>
+      <c r="Z115" s="71"/>
+      <c r="AA115" s="71"/>
+      <c r="AB115" s="71"/>
+      <c r="AC115" s="71"/>
+      <c r="AD115" s="71"/>
+      <c r="AE115" s="71"/>
+      <c r="AF115" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
